--- a/CB-202111.xlsx
+++ b/CB-202111.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFE1EBD1-4EE8-48F0-9F94-21C5CF2FFEA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C7E722-259E-4598-9477-DB7E9BDE159D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5475" yWindow="840" windowWidth="21600" windowHeight="13440" activeTab="1" xr2:uid="{D298135B-E4C0-45E9-BB28-1F0B05CAE31B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{D298135B-E4C0-45E9-BB28-1F0B05CAE31B}"/>
   </bookViews>
   <sheets>
     <sheet name="收益weekly" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="99">
   <si>
     <t>收入</t>
   </si>
@@ -384,6 +384,16 @@
   <si>
     <t>债价格偏高了，低于100的5支。</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>113037	紫银转债</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>浦发转债</t>
+  </si>
+  <si>
+    <t>绿茵转债</t>
   </si>
 </sst>
 </file>
@@ -863,7 +873,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -944,10 +954,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1006,10 +1012,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1024,10 +1026,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1056,10 +1054,6 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1092,10 +1086,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1132,10 +1122,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1163,24 +1149,8 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1209,78 +1179,18 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1292,6 +1202,77 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1334,7 +1315,7 @@
 </file>
 
 <file path=xl/activeX/activeX11.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX12.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1342,7 +1323,7 @@
 </file>
 
 <file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D122-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1558,6 +1539,9 @@
                 <c:pt idx="8">
                   <c:v>44515</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>44520</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1593,6 +1577,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>3211.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3310.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1710,6 +1697,9 @@
                 <c:pt idx="8">
                   <c:v>44515</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>44520</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1745,6 +1735,9 @@
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.1166</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1202</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2531,22 +2524,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
+      <xdr:colOff>409575</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>66282</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>47123</xdr:rowOff>
+      <xdr:colOff>142480</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>37349</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
+        <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3737EC36-323A-4042-B1AD-E39FE8E38AF8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2562,8 +2555,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1038225" y="9525"/>
-          <a:ext cx="3142857" cy="4019048"/>
+          <a:off x="1095375" y="0"/>
+          <a:ext cx="3161905" cy="6009524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3477,10 +3470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D2F1CA-30C4-4F8B-806E-18ED2E09BE84}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3502,102 +3495,113 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53">
+      <c r="A2" s="51">
         <v>44400</v>
       </c>
-      <c r="B2" s="36">
+      <c r="B2" s="35">
         <v>475.78</v>
       </c>
-      <c r="C2" s="54">
+      <c r="C2" s="52">
         <v>2.8400000000000002E-2</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="53">
+      <c r="A3" s="51">
         <v>44409</v>
       </c>
-      <c r="B3" s="36">
+      <c r="B3" s="35">
         <v>379.53</v>
       </c>
-      <c r="C3" s="54">
+      <c r="C3" s="52">
         <v>2.1399999999999999E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="53">
+      <c r="A4" s="51">
         <v>44416</v>
       </c>
-      <c r="B4" s="36">
+      <c r="B4" s="35">
         <v>738.74</v>
       </c>
-      <c r="C4" s="54">
+      <c r="C4" s="52">
         <v>4.1700000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="53">
+      <c r="A5" s="51">
         <v>44435</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="35">
         <v>1475.4</v>
       </c>
-      <c r="C5" s="54">
+      <c r="C5" s="52">
         <v>6.8500000000000005E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="53">
+      <c r="A6" s="51">
         <v>44448</v>
       </c>
-      <c r="B6" s="87">
+      <c r="B6" s="82">
         <v>2086.1</v>
       </c>
-      <c r="C6" s="54">
+      <c r="C6" s="52">
         <v>9.2299999999999993E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="53">
+      <c r="A7" s="51">
         <v>44457</v>
       </c>
-      <c r="B7" s="88">
+      <c r="B7" s="83">
         <v>1592.6</v>
       </c>
-      <c r="C7" s="89">
+      <c r="C7" s="84">
         <v>6.7599999999999993E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="53">
+      <c r="A8" s="51">
         <v>44463</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="35">
         <v>1866.5</v>
       </c>
-      <c r="C8" s="54">
+      <c r="C8" s="52">
         <v>7.6100000000000001E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="53">
+      <c r="A9" s="51">
         <v>44498</v>
       </c>
-      <c r="B9" s="87">
+      <c r="B9" s="82">
         <v>2017.3</v>
       </c>
-      <c r="C9" s="54">
+      <c r="C9" s="52">
         <v>7.5899999999999995E-2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="53">
+      <c r="A10" s="51">
         <v>44515</v>
       </c>
-      <c r="B10" s="87">
+      <c r="B10" s="82">
         <v>3211.7</v>
       </c>
-      <c r="C10" s="54">
+      <c r="C10" s="52">
         <v>0.1166</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="51">
+        <v>44520</v>
+      </c>
+      <c r="B11" s="82">
+        <v>3310.1</v>
+      </c>
+      <c r="C11" s="52">
+        <v>0.1202</v>
       </c>
     </row>
   </sheetData>
@@ -3611,9 +3615,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFBF750-5EAA-4883-8286-1EAD4F5E7DB3}">
   <dimension ref="A1:W60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E46" sqref="E46"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3621,10 +3625,10 @@
     <col min="1" max="1" width="2.5" style="10" customWidth="1"/>
     <col min="2" max="2" width="8.75" style="7"/>
     <col min="3" max="3" width="11.125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" style="49" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.75" style="49"/>
+    <col min="4" max="4" width="8" style="48" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.75" style="48"/>
     <col min="6" max="6" width="8.75" style="27"/>
-    <col min="7" max="7" width="8.75" style="40"/>
+    <col min="7" max="7" width="8.75" style="39"/>
     <col min="8" max="8" width="8.75" style="27"/>
     <col min="9" max="9" width="5.25" style="27" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="8.5" style="23" bestFit="1" customWidth="1"/>
@@ -3639,51 +3643,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="118"/>
-      <c r="B1" s="124" t="s">
+      <c r="A1" s="115"/>
+      <c r="B1" s="121" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="126" t="s">
+      <c r="C1" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="128" t="s">
+      <c r="D1" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="128" t="s">
+      <c r="E1" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="123" t="s">
+      <c r="F1" s="120" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="122" t="s">
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="119" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="122"/>
-      <c r="N1" s="122"/>
-      <c r="O1" s="122"/>
-      <c r="P1" s="122"/>
-      <c r="Q1" s="120" t="s">
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
+      <c r="O1" s="119"/>
+      <c r="P1" s="119"/>
+      <c r="Q1" s="117" t="s">
         <v>32</v>
       </c>
-      <c r="S1" s="116" t="s">
+      <c r="S1" s="113" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="119"/>
-      <c r="B2" s="125"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
+      <c r="A2" s="116"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
       <c r="F2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="36" t="s">
         <v>31</v>
       </c>
       <c r="H2" s="24" t="s">
@@ -3713,30 +3717,30 @@
       <c r="P2" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="121"/>
+      <c r="Q2" s="118"/>
       <c r="R2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="117"/>
+      <c r="S2" s="114"/>
     </row>
     <row r="3" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="100"/>
+      <c r="A3" s="63"/>
       <c r="B3" s="11">
         <v>1</v>
       </c>
-      <c r="C3" s="44">
+      <c r="C3" s="43">
         <v>44385</v>
       </c>
-      <c r="D3" s="58">
+      <c r="D3" s="55">
         <v>128117</v>
       </c>
-      <c r="E3" s="58" t="s">
+      <c r="E3" s="55" t="s">
         <v>33</v>
       </c>
       <c r="F3" s="24">
         <v>10</v>
       </c>
-      <c r="G3" s="37">
+      <c r="G3" s="36">
         <v>101.247</v>
       </c>
       <c r="H3" s="24">
@@ -3745,7 +3749,7 @@
       </c>
       <c r="I3" s="25"/>
       <c r="J3" s="21">
-        <v>107.753</v>
+        <v>107.93</v>
       </c>
       <c r="K3" s="21">
         <v>101.267</v>
@@ -3755,38 +3759,42 @@
       </c>
       <c r="M3" s="20">
         <f>J3*L3</f>
-        <v>1077.53</v>
-      </c>
-      <c r="N3" s="45">
+        <v>1079.3000000000002</v>
+      </c>
+      <c r="N3" s="44">
         <f>(J3-K3)/K3</f>
-        <v>6.4048505436124351E-2</v>
+        <v>6.579636011731374E-2</v>
       </c>
       <c r="O3" s="20">
         <f>(J3-K3)*L3</f>
-        <v>64.860000000000042</v>
-      </c>
-      <c r="P3" s="45">
+        <v>66.630000000000109</v>
+      </c>
+      <c r="P3" s="44">
         <f>M3/$M$55</f>
-        <v>3.6485774499473128E-2</v>
-      </c>
-      <c r="Q3" s="101"/>
-      <c r="S3" s="41"/>
+        <v>3.6424358456454961E-2</v>
+      </c>
+      <c r="Q3" s="105"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="72"/>
+      <c r="T3" s="71"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B4" s="11"/>
-      <c r="C4" s="44">
+      <c r="B4" s="106">
+        <v>2</v>
+      </c>
+      <c r="C4" s="43">
         <v>44385</v>
       </c>
-      <c r="D4" s="58">
+      <c r="D4" s="55">
         <v>113584</v>
       </c>
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="55" t="s">
         <v>38</v>
       </c>
       <c r="F4" s="25">
         <v>10</v>
       </c>
-      <c r="G4" s="38">
+      <c r="G4" s="37">
         <v>98.03</v>
       </c>
       <c r="H4" s="24">
@@ -3795,7 +3803,7 @@
       </c>
       <c r="I4" s="25"/>
       <c r="J4" s="21">
-        <v>103.87</v>
+        <v>103.27</v>
       </c>
       <c r="K4" s="21">
         <v>98.05</v>
@@ -3805,41 +3813,43 @@
       </c>
       <c r="M4" s="20">
         <f>J4*L4</f>
-        <v>1038.7</v>
-      </c>
-      <c r="N4" s="45">
+        <v>1032.7</v>
+      </c>
+      <c r="N4" s="44">
         <f>(J4-K4)/K4</f>
-        <v>5.9357470678225471E-2</v>
+        <v>5.3238143804181529E-2</v>
       </c>
       <c r="O4" s="20">
         <f>(J4-K4)*L4</f>
-        <v>58.200000000000074</v>
-      </c>
-      <c r="P4" s="45">
+        <v>52.199999999999989</v>
+      </c>
+      <c r="P4" s="44">
         <f>M4/$M$55</f>
-        <v>3.5170968764306088E-2</v>
+        <v>3.4851695523006605E-2</v>
       </c>
       <c r="Q4" s="14"/>
-      <c r="S4" s="46"/>
-      <c r="W4" s="49" t="s">
+      <c r="S4" s="45"/>
+      <c r="W4" s="48" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B5" s="11"/>
-      <c r="C5" s="44">
+      <c r="B5" s="106">
+        <v>3</v>
+      </c>
+      <c r="C5" s="43">
         <v>44385</v>
       </c>
-      <c r="D5" s="58">
+      <c r="D5" s="55">
         <v>113036</v>
       </c>
-      <c r="E5" s="58" t="s">
+      <c r="E5" s="55" t="s">
         <v>39</v>
       </c>
       <c r="F5" s="25">
         <v>10</v>
       </c>
-      <c r="G5" s="136">
+      <c r="G5" s="110">
         <v>100.92</v>
       </c>
       <c r="H5" s="24">
@@ -3848,7 +3858,7 @@
       </c>
       <c r="I5" s="25"/>
       <c r="J5" s="21">
-        <v>107.5</v>
+        <v>107.99</v>
       </c>
       <c r="K5" s="21">
         <v>100.94</v>
@@ -3858,32 +3868,34 @@
       </c>
       <c r="M5" s="20">
         <f>J5*L5</f>
-        <v>1075</v>
-      </c>
-      <c r="N5" s="45">
+        <v>1079.8999999999999</v>
+      </c>
+      <c r="N5" s="44">
         <f>(J5-K5)/K5</f>
-        <v>6.498910243709137E-2</v>
+        <v>6.9843471369130147E-2</v>
       </c>
       <c r="O5" s="20">
         <f>(J5-K5)*L5</f>
-        <v>65.600000000000023</v>
-      </c>
-      <c r="P5" s="45">
+        <v>70.499999999999972</v>
+      </c>
+      <c r="P5" s="44">
         <f>M5/$M$55</f>
-        <v>3.6400107270269613E-2</v>
+        <v>3.6444607335426385E-2</v>
       </c>
       <c r="Q5" s="14"/>
-      <c r="S5" s="46"/>
+      <c r="S5" s="45"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B6" s="11"/>
-      <c r="C6" s="44">
+      <c r="B6" s="106">
+        <v>4</v>
+      </c>
+      <c r="C6" s="43">
         <v>44385</v>
       </c>
-      <c r="D6" s="133">
+      <c r="D6" s="107">
         <v>128132</v>
       </c>
-      <c r="E6" s="58" t="s">
+      <c r="E6" s="55" t="s">
         <v>40</v>
       </c>
       <c r="F6" s="25">
@@ -3898,7 +3910,7 @@
       </c>
       <c r="I6" s="25"/>
       <c r="J6" s="21">
-        <v>104.18</v>
+        <v>105.012</v>
       </c>
       <c r="K6" s="21">
         <v>95.771000000000001</v>
@@ -3908,36 +3920,38 @@
       </c>
       <c r="M6" s="20">
         <f>J6*L6</f>
-        <v>1041.8000000000002</v>
-      </c>
-      <c r="N6" s="45">
+        <v>1050.1199999999999</v>
+      </c>
+      <c r="N6" s="44">
         <f>(J6-K6)/K6</f>
-        <v>8.7803197210011438E-2</v>
+        <v>9.6490586920884192E-2</v>
       </c>
       <c r="O6" s="20">
         <f>(J6-K6)*L6</f>
-        <v>84.09000000000006</v>
-      </c>
-      <c r="P6" s="45">
+        <v>92.41</v>
+      </c>
+      <c r="P6" s="44">
         <f>M6/$M$55</f>
-        <v>3.5275936515504078E-2</v>
+        <v>3.5439587975810684E-2</v>
       </c>
       <c r="Q6" s="14"/>
-      <c r="S6" s="46"/>
+      <c r="S6" s="45"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B7" s="11"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="58">
+      <c r="B7" s="106">
+        <v>5</v>
+      </c>
+      <c r="C7" s="43"/>
+      <c r="D7" s="55">
         <v>128044</v>
       </c>
-      <c r="E7" s="58" t="s">
+      <c r="E7" s="55" t="s">
         <v>41</v>
       </c>
       <c r="F7" s="25">
         <v>20</v>
       </c>
-      <c r="G7" s="38">
+      <c r="G7" s="37">
         <v>0</v>
       </c>
       <c r="H7" s="24">
@@ -3946,7 +3960,7 @@
       </c>
       <c r="I7" s="25"/>
       <c r="J7" s="21">
-        <v>112.389</v>
+        <v>113.72</v>
       </c>
       <c r="K7" s="21">
         <v>96.34</v>
@@ -3956,39 +3970,41 @@
       </c>
       <c r="M7" s="20">
         <f>J7*L7</f>
-        <v>2247.7799999999997</v>
-      </c>
-      <c r="N7" s="45">
+        <v>2274.4</v>
+      </c>
+      <c r="N7" s="44">
         <f>(J7-K7)/K7</f>
-        <v>0.16658708739879585</v>
+        <v>0.18040274029478923</v>
       </c>
       <c r="O7" s="20">
         <f>(J7-K7)*L7</f>
-        <v>320.97999999999985</v>
-      </c>
-      <c r="P7" s="45">
+        <v>347.59999999999991</v>
+      </c>
+      <c r="P7" s="44">
         <f>M7/$M$55</f>
-        <v>7.6111100576713137E-2</v>
+        <v>7.6756750554397429E-2</v>
       </c>
       <c r="Q7" s="14"/>
-      <c r="S7" s="46"/>
+      <c r="S7" s="45"/>
       <c r="W7" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B8" s="11"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="58">
+      <c r="B8" s="106">
+        <v>6</v>
+      </c>
+      <c r="C8" s="43"/>
+      <c r="D8" s="55">
         <v>127039</v>
       </c>
-      <c r="E8" s="58" t="s">
+      <c r="E8" s="55" t="s">
         <v>44</v>
       </c>
       <c r="F8" s="25">
         <v>10</v>
       </c>
-      <c r="G8" s="38">
+      <c r="G8" s="37">
         <v>0</v>
       </c>
       <c r="H8" s="24">
@@ -3997,7 +4013,7 @@
       </c>
       <c r="I8" s="25"/>
       <c r="J8" s="21">
-        <v>117.45099999999999</v>
+        <v>118.52</v>
       </c>
       <c r="K8" s="21">
         <v>100</v>
@@ -4007,36 +4023,38 @@
       </c>
       <c r="M8" s="20">
         <f>J8*L8</f>
-        <v>1174.51</v>
-      </c>
-      <c r="N8" s="45">
+        <v>1185.2</v>
+      </c>
+      <c r="N8" s="44">
         <f>(J8-K8)/K8</f>
-        <v>0.17450999999999994</v>
+        <v>0.18519999999999995</v>
       </c>
       <c r="O8" s="20">
         <f>(J8-K8)*L8</f>
-        <v>174.50999999999993</v>
-      </c>
-      <c r="P8" s="45">
+        <v>185.19999999999996</v>
+      </c>
+      <c r="P8" s="44">
         <f>M8/$M$55</f>
-        <v>3.9769572083724988E-2</v>
+        <v>3.9998285594913752E-2</v>
       </c>
       <c r="Q8" s="14"/>
-      <c r="S8" s="46"/>
+      <c r="S8" s="45"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B9" s="29"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="58">
+      <c r="B9" s="106">
+        <v>7</v>
+      </c>
+      <c r="C9" s="43"/>
+      <c r="D9" s="55">
         <v>127003</v>
       </c>
-      <c r="E9" s="58" t="s">
+      <c r="E9" s="55" t="s">
         <v>42</v>
       </c>
       <c r="F9" s="25">
         <v>10</v>
       </c>
-      <c r="G9" s="38">
+      <c r="G9" s="37">
         <v>0</v>
       </c>
       <c r="H9" s="24">
@@ -4045,7 +4063,7 @@
       </c>
       <c r="I9" s="25"/>
       <c r="J9" s="21">
-        <v>109.20099999999999</v>
+        <v>112.99</v>
       </c>
       <c r="K9" s="21">
         <v>102.126</v>
@@ -4055,36 +4073,38 @@
       </c>
       <c r="M9" s="20">
         <f>J9*L9</f>
-        <v>1092.01</v>
-      </c>
-      <c r="N9" s="45">
+        <v>1129.8999999999999</v>
+      </c>
+      <c r="N9" s="44">
         <f>(J9-K9)/K9</f>
-        <v>6.9277167420637137E-2</v>
+        <v>0.10637839531559044</v>
       </c>
       <c r="O9" s="20">
         <f>(J9-K9)*L9</f>
-        <v>70.749999999999886</v>
-      </c>
-      <c r="P9" s="45">
+        <v>108.6399999999999</v>
+      </c>
+      <c r="P9" s="44">
         <f>M9/$M$55</f>
-        <v>3.6976075479262432E-2</v>
+        <v>3.8132013916379548E-2</v>
       </c>
       <c r="Q9" s="14"/>
-      <c r="S9" s="46"/>
+      <c r="S9" s="45"/>
     </row>
     <row r="10" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="29"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="58">
+      <c r="B10" s="106">
+        <v>8</v>
+      </c>
+      <c r="C10" s="43"/>
+      <c r="D10" s="55">
         <v>113569</v>
       </c>
-      <c r="E10" s="58" t="s">
+      <c r="E10" s="55" t="s">
         <v>50</v>
       </c>
       <c r="F10" s="25">
         <v>10</v>
       </c>
-      <c r="G10" s="38">
+      <c r="G10" s="37">
         <v>0</v>
       </c>
       <c r="H10" s="24">
@@ -4093,7 +4113,7 @@
       </c>
       <c r="I10" s="25"/>
       <c r="J10" s="21">
-        <v>103.1</v>
+        <v>103.94</v>
       </c>
       <c r="K10" s="21">
         <v>99.6</v>
@@ -4103,40 +4123,42 @@
       </c>
       <c r="M10" s="20">
         <f>J10*L10</f>
-        <v>1031</v>
-      </c>
-      <c r="N10" s="45">
+        <v>1039.4000000000001</v>
+      </c>
+      <c r="N10" s="44">
         <f>(J10-K10)/K10</f>
-        <v>3.5140562248995984E-2</v>
+        <v>4.3574297188755058E-2</v>
       </c>
       <c r="O10" s="20">
         <f>(J10-K10)*L10</f>
-        <v>35</v>
-      </c>
-      <c r="P10" s="45">
+        <v>43.400000000000034</v>
+      </c>
+      <c r="P10" s="44">
         <f>M10/$M$55</f>
-        <v>3.4910242414556251E-2</v>
+        <v>3.5077808004854334E-2</v>
       </c>
       <c r="Q10" s="14"/>
-      <c r="S10" s="46"/>
+      <c r="S10" s="45"/>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B11" s="50"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="58">
+      <c r="B11" s="106">
+        <v>9</v>
+      </c>
+      <c r="C11" s="43"/>
+      <c r="D11" s="55">
         <v>110064</v>
       </c>
-      <c r="E11" s="58" t="s">
+      <c r="E11" s="55" t="s">
         <v>49</v>
       </c>
       <c r="F11" s="25">
         <v>10</v>
       </c>
-      <c r="G11" s="38"/>
+      <c r="G11" s="37"/>
       <c r="H11" s="24"/>
       <c r="I11" s="25"/>
       <c r="J11" s="21">
-        <v>106.27</v>
+        <v>106.6</v>
       </c>
       <c r="K11" s="21">
         <v>97.01</v>
@@ -4146,36 +4168,39 @@
       </c>
       <c r="M11" s="20">
         <f>J11*L11</f>
-        <v>1062.7</v>
-      </c>
-      <c r="N11" s="45">
+        <v>1066</v>
+      </c>
+      <c r="N11" s="44">
         <f>(J11-K11)/K11</f>
-        <v>9.5454076899288628E-2</v>
+        <v>9.8855788063086161E-2</v>
       </c>
       <c r="O11" s="20">
         <f>(J11-K11)*L11</f>
-        <v>92.599999999999909</v>
-      </c>
-      <c r="P11" s="45">
+        <v>95.899999999999892</v>
+      </c>
+      <c r="P11" s="44">
         <f>M11/$M$55</f>
-        <v>3.5983622321967924E-2</v>
+        <v>3.597550830592141E-2</v>
       </c>
       <c r="Q11" s="14"/>
-      <c r="S11" s="46"/>
+      <c r="S11" s="45"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B12" s="29"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="58">
+      <c r="A12" s="130"/>
+      <c r="B12" s="106">
+        <v>10</v>
+      </c>
+      <c r="C12" s="43"/>
+      <c r="D12" s="55">
         <v>123023</v>
       </c>
-      <c r="E12" s="58" t="s">
+      <c r="E12" s="55" t="s">
         <v>43</v>
       </c>
       <c r="F12" s="25">
         <v>10</v>
       </c>
-      <c r="G12" s="38">
+      <c r="G12" s="37">
         <v>0</v>
       </c>
       <c r="H12" s="24">
@@ -4184,7 +4209,7 @@
       </c>
       <c r="I12" s="25"/>
       <c r="J12" s="21">
-        <v>112.02800000000001</v>
+        <v>113</v>
       </c>
       <c r="K12" s="21">
         <v>98.131</v>
@@ -4194,76 +4219,85 @@
       </c>
       <c r="M12" s="20">
         <f>J12*L12</f>
-        <v>1120.28</v>
-      </c>
-      <c r="N12" s="45">
+        <v>1130</v>
+      </c>
+      <c r="N12" s="44">
         <f>(J12-K12)/K12</f>
-        <v>0.14161681833467513</v>
+        <v>0.15152194515494594</v>
       </c>
       <c r="O12" s="20">
         <f>(J12-K12)*L12</f>
-        <v>138.97000000000006</v>
-      </c>
-      <c r="P12" s="45">
+        <v>148.69</v>
+      </c>
+      <c r="P12" s="44">
         <f>M12/$M$55</f>
-        <v>3.7933313649058269E-2</v>
+        <v>3.8135388729541461E-2</v>
       </c>
       <c r="Q12" s="14"/>
-      <c r="S12" s="46"/>
-    </row>
-    <row r="13" spans="1:23" s="103" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="113"/>
-      <c r="B13" s="104"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="106">
+      <c r="R12" s="85"/>
+      <c r="S12" s="93"/>
+      <c r="T12" s="85"/>
+    </row>
+    <row r="13" spans="1:23" s="94" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="10"/>
+      <c r="B13" s="106">
+        <v>11</v>
+      </c>
+      <c r="C13" s="103"/>
+      <c r="D13" s="96">
         <v>113574</v>
       </c>
-      <c r="E13" s="106" t="s">
+      <c r="E13" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="107">
+      <c r="F13" s="97">
         <v>10</v>
       </c>
-      <c r="G13" s="108"/>
-      <c r="H13" s="109"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="107"/>
-      <c r="L13" s="107">
+      <c r="G13" s="98"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="97"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="97"/>
+      <c r="L13" s="97">
         <v>10</v>
       </c>
-      <c r="M13" s="109">
+      <c r="M13" s="99">
         <f>J13*L13</f>
         <v>0</v>
       </c>
-      <c r="N13" s="110" t="e">
+      <c r="N13" s="100" t="e">
         <f>(J13-K13)/K13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O13" s="109">
+      <c r="O13" s="99">
         <f>(J13-K13)*L13</f>
         <v>0</v>
       </c>
-      <c r="P13" s="110">
+      <c r="P13" s="100">
         <f>M13/$M$55</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="111"/>
-      <c r="S13" s="112"/>
+      <c r="Q13" s="101"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="7"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B14" s="29"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="58">
+      <c r="A14" s="131"/>
+      <c r="B14" s="106">
+        <v>12</v>
+      </c>
+      <c r="C14" s="43"/>
+      <c r="D14" s="55">
         <v>113519</v>
       </c>
-      <c r="E14" s="58" t="s">
+      <c r="E14" s="55" t="s">
         <v>52</v>
       </c>
       <c r="F14" s="25">
         <v>10</v>
       </c>
-      <c r="G14" s="38">
+      <c r="G14" s="37">
         <v>0</v>
       </c>
       <c r="H14" s="24">
@@ -4272,7 +4306,7 @@
       </c>
       <c r="I14" s="25"/>
       <c r="J14" s="21">
-        <v>108.01</v>
+        <v>108.6</v>
       </c>
       <c r="K14" s="21">
         <v>98.71</v>
@@ -4282,36 +4316,40 @@
       </c>
       <c r="M14" s="20">
         <f>J14*L14</f>
-        <v>1080.1000000000001</v>
-      </c>
-      <c r="N14" s="45">
+        <v>1086</v>
+      </c>
+      <c r="N14" s="44">
         <f>(J14-K14)/K14</f>
-        <v>9.421537838111653E-2</v>
+        <v>0.10019248303110122</v>
       </c>
       <c r="O14" s="20">
         <f>(J14-K14)*L14</f>
-        <v>93.000000000000114</v>
-      </c>
-      <c r="P14" s="45">
+        <v>98.9</v>
+      </c>
+      <c r="P14" s="44">
         <f>M14/$M$55</f>
-        <v>3.6572796151272756E-2</v>
+        <v>3.6650470938302676E-2</v>
       </c>
       <c r="Q14" s="14"/>
-      <c r="S14" s="46"/>
+      <c r="R14" s="73"/>
+      <c r="S14" s="81"/>
+      <c r="T14" s="73"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B15" s="29"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="58">
+      <c r="B15" s="106">
+        <v>13</v>
+      </c>
+      <c r="C15" s="43"/>
+      <c r="D15" s="55">
         <v>113563</v>
       </c>
-      <c r="E15" s="58" t="s">
+      <c r="E15" s="55" t="s">
         <v>53</v>
       </c>
       <c r="F15" s="25">
         <v>10</v>
       </c>
-      <c r="G15" s="38">
+      <c r="G15" s="37">
         <v>0</v>
       </c>
       <c r="H15" s="24">
@@ -4320,7 +4358,7 @@
       </c>
       <c r="I15" s="25"/>
       <c r="J15" s="21">
-        <v>106.08</v>
+        <v>106.31</v>
       </c>
       <c r="K15" s="21">
         <v>109.215</v>
@@ -4330,40 +4368,40 @@
       </c>
       <c r="M15" s="20">
         <f>J15*L15</f>
-        <v>2121.6</v>
-      </c>
-      <c r="N15" s="45">
+        <v>2126.1999999999998</v>
+      </c>
+      <c r="N15" s="44">
         <f>(J15-K15)/K15</f>
-        <v>-2.8704848235132582E-2</v>
+        <v>-2.659891040607976E-2</v>
       </c>
       <c r="O15" s="20">
         <f>(J15-K15)*L15</f>
-        <v>-62.700000000000102</v>
-      </c>
-      <c r="P15" s="45">
+        <v>-58.100000000000023</v>
+      </c>
+      <c r="P15" s="44">
         <f>M15/$M$55</f>
-        <v>7.1838574497306046E-2</v>
+        <v>7.1755277448452254E-2</v>
       </c>
       <c r="Q15" s="14"/>
-      <c r="S15" s="46"/>
+      <c r="S15" s="45"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B16" s="29">
-        <v>2</v>
-      </c>
-      <c r="C16" s="44">
+      <c r="B16" s="106">
+        <v>14</v>
+      </c>
+      <c r="C16" s="43">
         <v>44389</v>
       </c>
-      <c r="D16" s="58">
+      <c r="D16" s="55">
         <v>128100</v>
       </c>
-      <c r="E16" s="58" t="s">
+      <c r="E16" s="55" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="25">
         <v>10</v>
       </c>
-      <c r="G16" s="38">
+      <c r="G16" s="37">
         <v>0</v>
       </c>
       <c r="H16" s="24">
@@ -4372,7 +4410,7 @@
       </c>
       <c r="I16" s="25"/>
       <c r="J16" s="21">
-        <v>105.12</v>
+        <v>103.39700000000001</v>
       </c>
       <c r="K16" s="21">
         <v>78.131</v>
@@ -4382,40 +4420,40 @@
       </c>
       <c r="M16" s="20">
         <f>J16*L16</f>
-        <v>1051.2</v>
-      </c>
-      <c r="N16" s="45">
+        <v>1033.97</v>
+      </c>
+      <c r="N16" s="44">
         <f>(J16-K16)/K16</f>
-        <v>0.34543267077088485</v>
+        <v>0.32337996441873273</v>
       </c>
       <c r="O16" s="20">
         <f>(J16-K16)*L16</f>
-        <v>269.89000000000004</v>
-      </c>
-      <c r="P16" s="45">
+        <v>252.66000000000005</v>
+      </c>
+      <c r="P16" s="44">
         <f>M16/$M$55</f>
-        <v>3.5594225825588292E-2</v>
+        <v>3.489455565016282E-2</v>
       </c>
       <c r="Q16" s="14"/>
-      <c r="S16" s="46"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B17" s="29">
-        <v>3</v>
-      </c>
-      <c r="C17" s="44">
+      <c r="S16" s="45"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B17" s="106">
+        <v>15</v>
+      </c>
+      <c r="C17" s="43">
         <v>44397</v>
       </c>
-      <c r="D17" s="58">
+      <c r="D17" s="55">
         <v>113589</v>
       </c>
-      <c r="E17" s="58" t="s">
+      <c r="E17" s="55" t="s">
         <v>55</v>
       </c>
       <c r="F17" s="25">
         <v>10</v>
       </c>
-      <c r="G17" s="38">
+      <c r="G17" s="37">
         <v>0</v>
       </c>
       <c r="H17" s="24">
@@ -4424,7 +4462,7 @@
       </c>
       <c r="I17" s="25"/>
       <c r="J17" s="21">
-        <v>99.35</v>
+        <v>100.07</v>
       </c>
       <c r="K17" s="21">
         <v>94.27</v>
@@ -4434,40 +4472,40 @@
       </c>
       <c r="M17" s="20">
         <f>J17*L17</f>
-        <v>993.5</v>
-      </c>
-      <c r="N17" s="45">
+        <v>1000.6999999999999</v>
+      </c>
+      <c r="N17" s="44">
         <f>(J17-K17)/K17</f>
-        <v>5.3887769173650138E-2</v>
+        <v>6.1525405749443061E-2</v>
       </c>
       <c r="O17" s="20">
         <f>(J17-K17)*L17</f>
-        <v>50.799999999999983</v>
-      </c>
-      <c r="P17" s="45">
+        <v>57.999999999999972</v>
+      </c>
+      <c r="P17" s="44">
         <f>M17/$M$55</f>
-        <v>3.3640471230709637E-2</v>
+        <v>3.3771755311196583E-2</v>
       </c>
       <c r="Q17" s="14"/>
-      <c r="S17" s="46"/>
-    </row>
-    <row r="18" spans="1:19" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="56">
-        <v>4</v>
-      </c>
-      <c r="C18" s="55">
+      <c r="S17" s="45"/>
+    </row>
+    <row r="18" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="B18" s="106">
+        <v>16</v>
+      </c>
+      <c r="C18" s="53">
         <v>44403</v>
       </c>
-      <c r="D18" s="58" t="s">
+      <c r="D18" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="135" t="s">
+      <c r="E18" s="109" t="s">
         <v>83</v>
       </c>
       <c r="F18" s="25">
         <v>10</v>
       </c>
-      <c r="G18" s="38">
+      <c r="G18" s="37">
         <v>0</v>
       </c>
       <c r="H18" s="24">
@@ -4476,7 +4514,7 @@
       </c>
       <c r="I18" s="25"/>
       <c r="J18" s="21">
-        <v>99.34</v>
+        <v>99.37</v>
       </c>
       <c r="K18" s="21">
         <v>97.88</v>
@@ -4486,40 +4524,40 @@
       </c>
       <c r="M18" s="20">
         <f>J18*L18</f>
-        <v>993.40000000000009</v>
-      </c>
-      <c r="N18" s="45">
+        <v>993.7</v>
+      </c>
+      <c r="N18" s="44">
         <f>(J18-K18)/K18</f>
-        <v>1.4916223947691131E-2</v>
+        <v>1.5222721700040961E-2</v>
       </c>
       <c r="O18" s="20">
         <f>(J18-K18)*L18</f>
-        <v>14.60000000000008</v>
-      </c>
-      <c r="P18" s="45">
+        <v>14.900000000000091</v>
+      </c>
+      <c r="P18" s="44">
         <f>M18/$M$55</f>
-        <v>3.3637085174219379E-2</v>
+        <v>3.3535518389863142E-2</v>
       </c>
       <c r="Q18" s="14"/>
-      <c r="S18" s="46"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B19" s="56">
-        <v>5</v>
-      </c>
-      <c r="C19" s="55">
+      <c r="S18" s="45"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B19" s="106">
+        <v>17</v>
+      </c>
+      <c r="C19" s="53">
         <v>44418</v>
       </c>
-      <c r="D19" s="58">
+      <c r="D19" s="55">
         <v>113595</v>
       </c>
-      <c r="E19" s="58" t="s">
+      <c r="E19" s="55" t="s">
         <v>60</v>
       </c>
       <c r="F19" s="25">
         <v>10</v>
       </c>
-      <c r="G19" s="38">
+      <c r="G19" s="37">
         <v>0</v>
       </c>
       <c r="H19" s="24">
@@ -4528,7 +4566,7 @@
       </c>
       <c r="I19" s="25"/>
       <c r="J19" s="21">
-        <v>114.75</v>
+        <v>107.44</v>
       </c>
       <c r="K19" s="21">
         <v>86.13</v>
@@ -4538,44 +4576,44 @@
       </c>
       <c r="M19" s="20">
         <f>J19*L19</f>
-        <v>1147.5</v>
-      </c>
-      <c r="N19" s="45">
+        <v>1074.4000000000001</v>
+      </c>
+      <c r="N19" s="44">
         <f>(J19-K19)/K19</f>
-        <v>0.33228840125391856</v>
+        <v>0.24741669569255781</v>
       </c>
       <c r="O19" s="20">
         <f>(J19-K19)*L19</f>
-        <v>286.20000000000005</v>
-      </c>
-      <c r="P19" s="45">
+        <v>213.10000000000002</v>
+      </c>
+      <c r="P19" s="44">
         <f>M19/$M$55</f>
-        <v>3.88549982257064E-2</v>
+        <v>3.6258992611521546E-2</v>
       </c>
       <c r="Q19" s="14"/>
-      <c r="S19" s="46"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B20" s="56">
-        <v>6</v>
-      </c>
-      <c r="C20" s="55">
+      <c r="S19" s="45"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B20" s="106">
+        <v>18</v>
+      </c>
+      <c r="C20" s="53">
         <v>44425</v>
       </c>
-      <c r="D20" s="58">
+      <c r="D20" s="55">
         <v>113596</v>
       </c>
-      <c r="E20" s="58" t="s">
+      <c r="E20" s="55" t="s">
         <v>63</v>
       </c>
       <c r="F20" s="25">
         <v>10</v>
       </c>
-      <c r="G20" s="38"/>
+      <c r="G20" s="37"/>
       <c r="H20" s="24"/>
       <c r="I20" s="25"/>
       <c r="J20" s="21">
-        <v>93.97</v>
+        <v>96.18</v>
       </c>
       <c r="K20" s="21">
         <v>92.44</v>
@@ -4585,87 +4623,89 @@
       </c>
       <c r="M20" s="20">
         <f>J20*L20</f>
-        <v>939.7</v>
-      </c>
-      <c r="N20" s="45">
+        <v>961.80000000000007</v>
+      </c>
+      <c r="N20" s="44">
         <f>(J20-K20)/K20</f>
-        <v>1.6551276503678075E-2</v>
+        <v>4.0458675897879805E-2</v>
       </c>
       <c r="O20" s="20">
         <f>(J20-K20)*L20</f>
-        <v>15.300000000000011</v>
-      </c>
-      <c r="P20" s="45">
+        <v>37.400000000000091</v>
+      </c>
+      <c r="P20" s="44">
         <f>M20/$M$55</f>
-        <v>3.1818772838951029E-2</v>
+        <v>3.2458952991215026E-2</v>
       </c>
       <c r="Q20" s="14"/>
-      <c r="S20" s="46"/>
-    </row>
-    <row r="21" spans="1:19" s="75" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="66"/>
-      <c r="B21" s="67">
-        <v>7</v>
-      </c>
-      <c r="C21" s="68">
+      <c r="S20" s="45"/>
+    </row>
+    <row r="21" spans="1:20" s="71" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="10"/>
+      <c r="B21" s="106">
+        <v>19</v>
+      </c>
+      <c r="C21" s="64">
         <v>44427</v>
       </c>
-      <c r="D21" s="69">
+      <c r="D21" s="65">
         <v>110081</v>
       </c>
-      <c r="E21" s="69" t="s">
+      <c r="E21" s="65" t="s">
         <v>61</v>
       </c>
-      <c r="F21" s="70">
+      <c r="F21" s="66">
         <v>10</v>
       </c>
-      <c r="G21" s="71">
+      <c r="G21" s="67">
         <v>100</v>
       </c>
-      <c r="H21" s="72"/>
-      <c r="I21" s="70" t="s">
+      <c r="H21" s="68"/>
+      <c r="I21" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="72">
+      <c r="J21" s="66"/>
+      <c r="K21" s="66"/>
+      <c r="L21" s="66"/>
+      <c r="M21" s="68">
         <f>J21*L21</f>
         <v>0</v>
       </c>
-      <c r="N21" s="73" t="e">
+      <c r="N21" s="69" t="e">
         <f>(J21-K21)/K21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O21" s="72">
+      <c r="O21" s="68">
         <f>(J21-K21)*L21</f>
         <v>0</v>
       </c>
-      <c r="P21" s="73">
+      <c r="P21" s="69">
         <f>M21/$M$55</f>
         <v>0</v>
       </c>
-      <c r="Q21" s="74"/>
-      <c r="S21" s="76"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q21" s="70"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="45"/>
+      <c r="T21" s="7"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
-      <c r="B22" s="56">
-        <v>8</v>
-      </c>
-      <c r="C22" s="55">
+      <c r="B22" s="106">
+        <v>20</v>
+      </c>
+      <c r="C22" s="53">
         <v>44434</v>
       </c>
-      <c r="D22" s="58" t="s">
+      <c r="D22" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="E22" s="58" t="s">
+      <c r="E22" s="55" t="s">
         <v>65</v>
       </c>
       <c r="F22" s="25">
         <v>10</v>
       </c>
-      <c r="G22" s="38">
+      <c r="G22" s="37">
         <v>102.7</v>
       </c>
       <c r="H22" s="24">
@@ -4674,7 +4714,7 @@
       </c>
       <c r="I22" s="25"/>
       <c r="J22" s="21">
-        <v>103.28</v>
+        <v>104.13</v>
       </c>
       <c r="K22" s="21">
         <v>102.74</v>
@@ -4684,41 +4724,41 @@
       </c>
       <c r="M22" s="20">
         <f>J22*L22</f>
-        <v>1032.8</v>
-      </c>
-      <c r="N22" s="45">
+        <v>1041.3</v>
+      </c>
+      <c r="N22" s="44">
         <f>(J22-K22)/K22</f>
-        <v>5.2559859840374369E-3</v>
+        <v>1.3529297255207325E-2</v>
       </c>
       <c r="O22" s="20">
         <f>(J22-K22)*L22</f>
-        <v>5.4000000000000625</v>
-      </c>
-      <c r="P22" s="45">
+        <v>13.900000000000006</v>
+      </c>
+      <c r="P22" s="44">
         <f>M22/$M$55</f>
-        <v>3.4971191431380888E-2</v>
+        <v>3.5141929454930547E-2</v>
       </c>
       <c r="Q22" s="14"/>
-      <c r="S22" s="46"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S22" s="45"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
-      <c r="B23" s="57">
-        <v>9</v>
-      </c>
-      <c r="C23" s="55">
+      <c r="B23" s="106">
+        <v>21</v>
+      </c>
+      <c r="C23" s="53">
         <v>44438</v>
       </c>
-      <c r="D23" s="58">
+      <c r="D23" s="55">
         <v>123056</v>
       </c>
-      <c r="E23" s="58" t="s">
+      <c r="E23" s="55" t="s">
         <v>77</v>
       </c>
       <c r="F23" s="25">
         <v>10</v>
       </c>
-      <c r="G23" s="38">
+      <c r="G23" s="37">
         <v>104.477</v>
       </c>
       <c r="H23" s="24">
@@ -4729,7 +4769,7 @@
         <v>78</v>
       </c>
       <c r="J23" s="21">
-        <v>108.005</v>
+        <v>107.1</v>
       </c>
       <c r="K23" s="21">
         <v>104.50700000000001</v>
@@ -4739,83 +4779,88 @@
       </c>
       <c r="M23" s="20">
         <f>J23*L23</f>
-        <v>1080.05</v>
-      </c>
-      <c r="N23" s="45">
+        <v>1071</v>
+      </c>
+      <c r="N23" s="44">
         <f>(J23-K23)/K23</f>
-        <v>3.3471442104356555E-2</v>
+        <v>2.4811735099084169E-2</v>
       </c>
       <c r="O23" s="20">
         <f>(J23-K23)*L23</f>
-        <v>34.979999999999905</v>
-      </c>
-      <c r="P23" s="45">
+        <v>25.929999999999893</v>
+      </c>
+      <c r="P23" s="44">
         <f>M23/$M$55</f>
-        <v>3.6571103123027617E-2</v>
+        <v>3.6144248964016731E-2</v>
       </c>
       <c r="Q23" s="14"/>
-      <c r="S23" s="46"/>
-    </row>
-    <row r="24" spans="1:19" s="77" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="78"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="80">
+      <c r="S23" s="45"/>
+    </row>
+    <row r="24" spans="1:20" s="73" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="85"/>
+      <c r="B24" s="106">
+        <v>22</v>
+      </c>
+      <c r="C24" s="74"/>
+      <c r="D24" s="75">
         <v>110081</v>
       </c>
-      <c r="E24" s="80" t="s">
+      <c r="E24" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="F24" s="81">
+      <c r="F24" s="76">
         <v>-10</v>
       </c>
-      <c r="G24" s="82">
+      <c r="G24" s="77">
         <v>156.43</v>
       </c>
-      <c r="H24" s="83">
-        <v>0</v>
-      </c>
-      <c r="I24" s="81" t="s">
+      <c r="H24" s="78">
+        <v>0</v>
+      </c>
+      <c r="I24" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="J24" s="81"/>
-      <c r="K24" s="81"/>
-      <c r="L24" s="81"/>
-      <c r="M24" s="83">
+      <c r="J24" s="76"/>
+      <c r="K24" s="76"/>
+      <c r="L24" s="76"/>
+      <c r="M24" s="78">
         <f>J24*L24</f>
         <v>0</v>
       </c>
-      <c r="N24" s="84" t="e">
+      <c r="N24" s="79" t="e">
         <f>(J24-K24)/K24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O24" s="83">
+      <c r="O24" s="78">
         <v>563.20000000000005</v>
       </c>
-      <c r="P24" s="45">
+      <c r="P24" s="44">
         <f>M24/$M$55</f>
         <v>0</v>
       </c>
-      <c r="Q24" s="85"/>
-      <c r="S24" s="86"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q24" s="80"/>
+      <c r="R24" s="85"/>
+      <c r="S24" s="93"/>
+      <c r="T24" s="85"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
-      <c r="B25" s="63">
-        <v>10</v>
-      </c>
-      <c r="C25" s="55">
+      <c r="B25" s="106">
+        <v>23</v>
+      </c>
+      <c r="C25" s="53">
         <v>44448</v>
       </c>
-      <c r="D25" s="58">
+      <c r="D25" s="55">
         <v>113017</v>
       </c>
-      <c r="E25" s="58" t="s">
+      <c r="E25" s="55" t="s">
         <v>48</v>
       </c>
       <c r="F25" s="25">
         <v>10</v>
       </c>
-      <c r="G25" s="38">
+      <c r="G25" s="37">
         <v>101.91</v>
       </c>
       <c r="H25" s="24">
@@ -4826,7 +4871,7 @@
         <v>78</v>
       </c>
       <c r="J25" s="21">
-        <v>103.12</v>
+        <v>108.3</v>
       </c>
       <c r="K25" s="21">
         <v>101.93</v>
@@ -4836,90 +4881,93 @@
       </c>
       <c r="M25" s="20">
         <f>J25*L25</f>
-        <v>1031.2</v>
-      </c>
-      <c r="N25" s="45">
+        <v>1083</v>
+      </c>
+      <c r="N25" s="44">
         <f>(J25-K25)/K25</f>
-        <v>1.1674678701069339E-2</v>
+        <v>6.2493868341018249E-2</v>
       </c>
       <c r="O25" s="20">
         <f>(J25-K25)*L25</f>
-        <v>11.899999999999977</v>
-      </c>
-      <c r="P25" s="45">
+        <v>63.699999999999903</v>
+      </c>
+      <c r="P25" s="44">
         <f>M25/$M$55</f>
-        <v>3.4917014527536767E-2</v>
+        <v>3.6549226543445487E-2</v>
       </c>
       <c r="Q25" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="S25" s="46"/>
-    </row>
-    <row r="26" spans="1:19" s="90" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="91">
-        <v>11</v>
-      </c>
-      <c r="C26" s="92">
+      <c r="S25" s="45"/>
+    </row>
+    <row r="26" spans="1:20" s="85" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="7"/>
+      <c r="B26" s="106">
+        <v>24</v>
+      </c>
+      <c r="C26" s="86">
         <v>44453</v>
       </c>
-      <c r="D26" s="93">
+      <c r="D26" s="87">
         <v>113576</v>
       </c>
-      <c r="E26" s="134" t="s">
+      <c r="E26" s="108" t="s">
         <v>81</v>
       </c>
-      <c r="F26" s="94">
+      <c r="F26" s="88">
         <v>10</v>
       </c>
-      <c r="G26" s="95">
+      <c r="G26" s="89">
         <v>96.6</v>
       </c>
-      <c r="H26" s="96">
+      <c r="H26" s="90">
         <f>F26*G26</f>
         <v>966</v>
       </c>
-      <c r="I26" s="94" t="s">
+      <c r="I26" s="88" t="s">
         <v>78</v>
       </c>
-      <c r="J26" s="94"/>
-      <c r="K26" s="94"/>
-      <c r="L26" s="94"/>
-      <c r="M26" s="96">
+      <c r="J26" s="88"/>
+      <c r="K26" s="88"/>
+      <c r="L26" s="88"/>
+      <c r="M26" s="90">
         <f>J26*L26</f>
         <v>0</v>
       </c>
-      <c r="N26" s="97" t="e">
+      <c r="N26" s="91" t="e">
         <f>(J26-K26)/K26</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O26" s="96">
+      <c r="O26" s="90">
         <v>438.6</v>
       </c>
-      <c r="P26" s="97">
+      <c r="P26" s="91">
         <f>M26/$M$55</f>
         <v>0</v>
       </c>
-      <c r="Q26" s="98"/>
-      <c r="S26" s="99"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q26" s="92"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="45"/>
+      <c r="T26" s="7"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
-      <c r="B27" s="63">
-        <v>12</v>
-      </c>
-      <c r="C27" s="55">
+      <c r="B27" s="106">
+        <v>25</v>
+      </c>
+      <c r="C27" s="53">
         <v>44461</v>
       </c>
-      <c r="D27" s="58">
+      <c r="D27" s="55">
         <v>113578</v>
       </c>
-      <c r="E27" s="58" t="s">
+      <c r="E27" s="55" t="s">
         <v>82</v>
       </c>
       <c r="F27" s="25">
         <v>10</v>
       </c>
-      <c r="G27" s="38">
+      <c r="G27" s="37">
         <v>98.3</v>
       </c>
       <c r="H27" s="24">
@@ -4930,7 +4978,7 @@
         <v>78</v>
       </c>
       <c r="J27" s="21">
-        <v>105.53</v>
+        <v>104.39</v>
       </c>
       <c r="K27" s="21">
         <v>98.32</v>
@@ -4940,41 +4988,41 @@
       </c>
       <c r="M27" s="20">
         <f>J27*L27</f>
-        <v>1055.3</v>
-      </c>
-      <c r="N27" s="45">
+        <v>1043.9000000000001</v>
+      </c>
+      <c r="N27" s="44">
         <f>(J27-K27)/K27</f>
-        <v>7.3331977217249877E-2</v>
+        <v>6.1737184703010657E-2</v>
       </c>
       <c r="O27" s="20">
         <f>(J27-K27)*L27</f>
-        <v>72.10000000000008</v>
-      </c>
-      <c r="P27" s="45">
+        <v>60.700000000000074</v>
+      </c>
+      <c r="P27" s="44">
         <f>M27/$M$55</f>
-        <v>3.5733054141688855E-2</v>
+        <v>3.5229674597140118E-2</v>
       </c>
       <c r="Q27" s="14"/>
-      <c r="S27" s="46"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S27" s="45"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
-      <c r="B28" s="63">
-        <v>13</v>
-      </c>
-      <c r="C28" s="55">
+      <c r="B28" s="106">
+        <v>26</v>
+      </c>
+      <c r="C28" s="53">
         <v>44466</v>
       </c>
-      <c r="D28" s="58">
+      <c r="D28" s="55">
         <v>127016</v>
       </c>
-      <c r="E28" s="58" t="s">
+      <c r="E28" s="55" t="s">
         <v>76</v>
       </c>
       <c r="F28" s="25">
         <v>10</v>
       </c>
-      <c r="G28" s="38">
+      <c r="G28" s="37">
         <v>102.20099999999999</v>
       </c>
       <c r="H28" s="24">
@@ -4985,7 +5033,7 @@
         <v>78</v>
       </c>
       <c r="J28" s="21">
-        <v>106.70099999999999</v>
+        <v>107.158</v>
       </c>
       <c r="K28" s="21">
         <v>102.23099999999999</v>
@@ -4995,41 +5043,41 @@
       </c>
       <c r="M28" s="20">
         <f>J28*L28</f>
-        <v>1067.01</v>
-      </c>
-      <c r="N28" s="45">
+        <v>1071.58</v>
+      </c>
+      <c r="N28" s="44">
         <f>(J28-K28)/K28</f>
-        <v>4.3724506265222868E-2</v>
+        <v>4.8194774579139468E-2</v>
       </c>
       <c r="O28" s="20">
         <f>(J28-K28)*L28</f>
-        <v>44.699999999999989</v>
-      </c>
-      <c r="P28" s="45">
+        <v>49.270000000000067</v>
+      </c>
+      <c r="P28" s="44">
         <f>M28/$M$55</f>
-        <v>3.6129561356698023E-2</v>
+        <v>3.6163822880355787E-2</v>
       </c>
       <c r="Q28" s="14"/>
-      <c r="S28" s="46"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A29" s="7"/>
-      <c r="B29" s="102">
-        <v>14</v>
-      </c>
-      <c r="C29" s="55">
+      <c r="S28" s="45"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A29" s="94"/>
+      <c r="B29" s="106">
+        <v>27</v>
+      </c>
+      <c r="C29" s="53">
         <v>44482</v>
       </c>
-      <c r="D29" s="58">
+      <c r="D29" s="55">
         <v>127007</v>
       </c>
-      <c r="E29" s="58" t="s">
+      <c r="E29" s="55" t="s">
         <v>84</v>
       </c>
       <c r="F29" s="25">
         <v>10</v>
       </c>
-      <c r="G29" s="38">
+      <c r="G29" s="37">
         <v>102.511</v>
       </c>
       <c r="H29" s="24">
@@ -5040,7 +5088,7 @@
         <v>78</v>
       </c>
       <c r="J29" s="21">
-        <v>102.92100000000001</v>
+        <v>104.33</v>
       </c>
       <c r="K29" s="21">
         <v>101</v>
@@ -5050,41 +5098,43 @@
       </c>
       <c r="M29" s="20">
         <f>J29*L29</f>
-        <v>1029.21</v>
-      </c>
-      <c r="N29" s="45">
+        <v>1043.3</v>
+      </c>
+      <c r="N29" s="44">
         <f>(J29-K29)/K29</f>
-        <v>1.9019801980198085E-2</v>
+        <v>3.2970297029702951E-2</v>
       </c>
       <c r="O29" s="20">
         <f>(J29-K29)*L29</f>
-        <v>19.210000000000065</v>
-      </c>
-      <c r="P29" s="45">
+        <v>33.299999999999983</v>
+      </c>
+      <c r="P29" s="44">
         <f>M29/$M$55</f>
-        <v>3.4849632003380641E-2</v>
+        <v>3.5209425718168673E-2</v>
       </c>
       <c r="Q29" s="14"/>
-      <c r="S29" s="46"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A30" s="7"/>
-      <c r="B30" s="102">
-        <v>15</v>
-      </c>
-      <c r="C30" s="55">
+      <c r="R29" s="94"/>
+      <c r="S29" s="102"/>
+      <c r="T29" s="94"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A30" s="8"/>
+      <c r="B30" s="106">
+        <v>28</v>
+      </c>
+      <c r="C30" s="53">
         <v>44487</v>
       </c>
-      <c r="D30" s="58">
+      <c r="D30" s="55">
         <v>128062</v>
       </c>
-      <c r="E30" s="58" t="s">
+      <c r="E30" s="55" t="s">
         <v>85</v>
       </c>
       <c r="F30" s="25">
         <v>10</v>
       </c>
-      <c r="G30" s="38">
+      <c r="G30" s="37">
         <v>89.132999999999996</v>
       </c>
       <c r="H30" s="24">
@@ -5095,7 +5145,7 @@
         <v>78</v>
       </c>
       <c r="J30" s="21">
-        <v>96.32</v>
+        <v>95.32</v>
       </c>
       <c r="K30" s="21">
         <v>92</v>
@@ -5105,85 +5155,92 @@
       </c>
       <c r="M30" s="20">
         <f>J30*L30</f>
-        <v>963.19999999999993</v>
-      </c>
-      <c r="N30" s="45">
+        <v>953.19999999999993</v>
+      </c>
+      <c r="N30" s="44">
         <f>(J30-K30)/K30</f>
-        <v>4.6956521739130362E-2</v>
+        <v>3.6086956521739058E-2</v>
       </c>
       <c r="O30" s="20">
         <f>(J30-K30)*L30</f>
-        <v>43.199999999999932</v>
-      </c>
-      <c r="P30" s="45">
+        <v>33.199999999999932</v>
+      </c>
+      <c r="P30" s="44">
         <f>M30/$M$55</f>
-        <v>3.2614496114161569E-2</v>
+        <v>3.2168719059291077E-2</v>
       </c>
       <c r="Q30" s="14"/>
-      <c r="S30" s="46"/>
-    </row>
-    <row r="31" spans="1:19" s="90" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="102">
-        <v>16</v>
-      </c>
-      <c r="C31" s="92">
+      <c r="R30" s="8"/>
+      <c r="S30" s="40"/>
+      <c r="T30" s="8"/>
+    </row>
+    <row r="31" spans="1:20" s="85" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="7"/>
+      <c r="B31" s="106">
+        <v>29</v>
+      </c>
+      <c r="C31" s="86">
         <v>44495</v>
       </c>
-      <c r="D31" s="93">
+      <c r="D31" s="87">
         <v>113576</v>
       </c>
-      <c r="E31" s="134" t="s">
+      <c r="E31" s="108" t="s">
         <v>81</v>
       </c>
-      <c r="F31" s="94">
+      <c r="F31" s="88">
         <v>-10</v>
       </c>
-      <c r="G31" s="95">
+      <c r="G31" s="89">
         <v>140.5</v>
       </c>
-      <c r="H31" s="96">
+      <c r="H31" s="90">
         <f>F31*G31</f>
         <v>-1405</v>
       </c>
-      <c r="I31" s="94" t="s">
+      <c r="I31" s="88" t="s">
         <v>79</v>
       </c>
-      <c r="J31" s="94"/>
-      <c r="K31" s="94"/>
-      <c r="L31" s="94"/>
-      <c r="M31" s="96">
+      <c r="J31" s="88"/>
+      <c r="K31" s="88"/>
+      <c r="L31" s="88"/>
+      <c r="M31" s="90">
         <f>J31*L31</f>
         <v>0</v>
       </c>
-      <c r="N31" s="97" t="e">
+      <c r="N31" s="91" t="e">
         <f>(J31-K31)/K31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O31" s="96">
+      <c r="O31" s="90">
         <f>(J31-K31)*L31</f>
         <v>0</v>
       </c>
-      <c r="P31" s="97">
+      <c r="P31" s="91">
         <f>M31/$M$55</f>
         <v>0</v>
       </c>
-      <c r="Q31" s="98"/>
-      <c r="S31" s="99"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="Q31" s="92"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="45"/>
+      <c r="T31" s="7"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
-      <c r="B32" s="102"/>
+      <c r="B32" s="106">
+        <v>30</v>
+      </c>
       <c r="C32" s="13"/>
-      <c r="D32" s="58">
+      <c r="D32" s="55">
         <v>110072</v>
       </c>
-      <c r="E32" s="58" t="s">
+      <c r="E32" s="55" t="s">
         <v>86</v>
       </c>
       <c r="F32" s="25">
         <v>10</v>
       </c>
-      <c r="G32" s="38">
+      <c r="G32" s="37">
         <v>99.03</v>
       </c>
       <c r="H32" s="24">
@@ -5194,7 +5251,7 @@
         <v>78</v>
       </c>
       <c r="J32" s="21">
-        <v>98.58</v>
+        <v>98.03</v>
       </c>
       <c r="K32" s="21">
         <v>99.05</v>
@@ -5204,35 +5261,37 @@
       </c>
       <c r="M32" s="20">
         <f>J32*L32</f>
-        <v>985.8</v>
-      </c>
-      <c r="N32" s="45">
+        <v>980.3</v>
+      </c>
+      <c r="N32" s="44">
         <f>(J32-K32)/K32</f>
-        <v>-4.7450782433114472E-3</v>
+        <v>-1.0297829379101424E-2</v>
       </c>
       <c r="O32" s="20">
         <f>(J32-K32)*L32</f>
-        <v>-4.6999999999999886</v>
-      </c>
-      <c r="P32" s="45">
+        <v>-10.19999999999996</v>
+      </c>
+      <c r="P32" s="44">
         <f>M32/$M$55</f>
-        <v>3.3379744880959794E-2</v>
+        <v>3.3083293426167691E-2</v>
       </c>
       <c r="Q32" s="14"/>
-      <c r="S32" s="46"/>
+      <c r="S32" s="45"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
-      <c r="B33" s="63"/>
+      <c r="B33" s="106">
+        <v>31</v>
+      </c>
       <c r="C33" s="13"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58" t="s">
+      <c r="D33" s="55"/>
+      <c r="E33" s="55" t="s">
         <v>87</v>
       </c>
       <c r="F33" s="25">
         <v>10</v>
       </c>
-      <c r="G33" s="38"/>
+      <c r="G33" s="37"/>
       <c r="H33" s="24">
         <f>F33*G33</f>
         <v>0</v>
@@ -5253,7 +5312,7 @@
         <f>J33*L33</f>
         <v>1000</v>
       </c>
-      <c r="N33" s="45">
+      <c r="N33" s="44">
         <f>(J33-K33)/K33</f>
         <v>0</v>
       </c>
@@ -5261,70 +5320,72 @@
         <f>(J33-K33)*L33</f>
         <v>0</v>
       </c>
-      <c r="P33" s="45">
+      <c r="P33" s="44">
         <f>M33/$M$55</f>
-        <v>3.3860564902576384E-2</v>
+        <v>3.3748131619063239E-2</v>
       </c>
       <c r="Q33" s="14"/>
-      <c r="S33" s="46"/>
-    </row>
-    <row r="34" spans="1:19" s="103" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="104">
-        <v>17</v>
-      </c>
-      <c r="C34" s="105">
+      <c r="S33" s="45"/>
+    </row>
+    <row r="34" spans="1:19" s="94" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="106">
+        <v>32</v>
+      </c>
+      <c r="C34" s="95">
         <v>44509</v>
       </c>
-      <c r="D34" s="106">
+      <c r="D34" s="96">
         <v>113574</v>
       </c>
-      <c r="E34" s="106" t="s">
+      <c r="E34" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="F34" s="107">
+      <c r="F34" s="97">
         <v>-10</v>
       </c>
-      <c r="G34" s="108">
+      <c r="G34" s="98">
         <v>120.8</v>
       </c>
-      <c r="H34" s="109">
+      <c r="H34" s="99">
         <f>F34*G34</f>
         <v>-1208</v>
       </c>
-      <c r="I34" s="107" t="s">
+      <c r="I34" s="97" t="s">
         <v>79</v>
       </c>
-      <c r="J34" s="107"/>
-      <c r="K34" s="107"/>
-      <c r="L34" s="107"/>
-      <c r="M34" s="109">
+      <c r="J34" s="97"/>
+      <c r="K34" s="97"/>
+      <c r="L34" s="97"/>
+      <c r="M34" s="99">
         <f>J34*L34</f>
         <v>0</v>
       </c>
-      <c r="N34" s="110" t="e">
+      <c r="N34" s="100" t="e">
         <f>(J34-K34)/K34</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O34" s="109">
+      <c r="O34" s="99">
         <v>210.48</v>
       </c>
-      <c r="P34" s="110">
+      <c r="P34" s="100">
         <f>M34/$M$55</f>
         <v>0</v>
       </c>
-      <c r="Q34" s="111" t="s">
+      <c r="Q34" s="101" t="s">
         <v>95</v>
       </c>
-      <c r="S34" s="112"/>
+      <c r="S34" s="102"/>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="7"/>
-      <c r="B35" s="63"/>
+      <c r="B35" s="106">
+        <v>33</v>
+      </c>
       <c r="C35" s="13"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="58"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
       <c r="F35" s="25"/>
-      <c r="G35" s="38"/>
+      <c r="G35" s="37"/>
       <c r="H35" s="24">
         <f>F35*G35</f>
         <v>0</v>
@@ -5339,7 +5400,7 @@
         <f>J35*L35</f>
         <v>0</v>
       </c>
-      <c r="N35" s="45" t="e">
+      <c r="N35" s="44" t="e">
         <f>(J35-K35)/K35</f>
         <v>#DIV/0!</v>
       </c>
@@ -5347,21 +5408,23 @@
         <f>(J35-K35)*L35</f>
         <v>0</v>
       </c>
-      <c r="P35" s="45">
+      <c r="P35" s="44">
         <f>M35/$M$55</f>
         <v>0</v>
       </c>
       <c r="Q35" s="14"/>
-      <c r="S35" s="46"/>
+      <c r="S35" s="45"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="7"/>
-      <c r="B36" s="63"/>
+      <c r="B36" s="106">
+        <v>34</v>
+      </c>
       <c r="C36" s="13"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
       <c r="F36" s="25"/>
-      <c r="G36" s="38"/>
+      <c r="G36" s="37"/>
       <c r="H36" s="24">
         <f>F36*G36</f>
         <v>0</v>
@@ -5374,7 +5437,7 @@
         <f>J36*L36</f>
         <v>0</v>
       </c>
-      <c r="N36" s="45" t="e">
+      <c r="N36" s="44" t="e">
         <f>(J36-K36)/K36</f>
         <v>#DIV/0!</v>
       </c>
@@ -5382,21 +5445,23 @@
         <f>(J36-K36)*L36</f>
         <v>0</v>
       </c>
-      <c r="P36" s="45">
+      <c r="P36" s="44">
         <f>M36/$M$55</f>
         <v>0</v>
       </c>
       <c r="Q36" s="14"/>
-      <c r="S36" s="46"/>
+      <c r="S36" s="45"/>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="7"/>
-      <c r="B37" s="63"/>
+      <c r="B37" s="106">
+        <v>35</v>
+      </c>
       <c r="C37" s="13"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="58"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
       <c r="F37" s="25"/>
-      <c r="G37" s="38"/>
+      <c r="G37" s="37"/>
       <c r="H37" s="24">
         <f>F37*G37</f>
         <v>0</v>
@@ -5409,7 +5474,7 @@
         <f>J37*L37</f>
         <v>0</v>
       </c>
-      <c r="N37" s="45" t="e">
+      <c r="N37" s="44" t="e">
         <f>(J37-K37)/K37</f>
         <v>#DIV/0!</v>
       </c>
@@ -5417,23 +5482,25 @@
         <f>(J37-K37)*L37</f>
         <v>0</v>
       </c>
-      <c r="P37" s="45">
+      <c r="P37" s="44">
         <f>M37/$M$55</f>
         <v>0</v>
       </c>
       <c r="Q37" s="14"/>
-      <c r="S37" s="46"/>
+      <c r="S37" s="45"/>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="7"/>
-      <c r="B38" s="63"/>
+      <c r="B38" s="106">
+        <v>36</v>
+      </c>
       <c r="C38" s="13"/>
-      <c r="D38" s="58"/>
-      <c r="E38" s="58"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
       <c r="F38" s="25"/>
-      <c r="G38" s="38"/>
+      <c r="G38" s="37"/>
       <c r="H38" s="24">
-        <f t="shared" ref="H28:H43" si="0">F38*G38</f>
+        <f>F38*G38</f>
         <v>0</v>
       </c>
       <c r="I38" s="25"/>
@@ -5441,34 +5508,36 @@
       <c r="K38" s="21"/>
       <c r="L38" s="21"/>
       <c r="M38" s="20">
-        <f t="shared" ref="M28:M43" si="1">J38*L38</f>
-        <v>0</v>
-      </c>
-      <c r="N38" s="45" t="e">
-        <f t="shared" ref="N28:N43" si="2">(J38-K38)/K38</f>
+        <f>J38*L38</f>
+        <v>0</v>
+      </c>
+      <c r="N38" s="44" t="e">
+        <f>(J38-K38)/K38</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O38" s="20">
-        <f t="shared" ref="O28:O43" si="3">(J38-K38)*L38</f>
-        <v>0</v>
-      </c>
-      <c r="P38" s="45">
-        <f t="shared" ref="P28:P43" si="4">M38/$M$55</f>
+        <f>(J38-K38)*L38</f>
+        <v>0</v>
+      </c>
+      <c r="P38" s="44">
+        <f>M38/$M$55</f>
         <v>0</v>
       </c>
       <c r="Q38" s="14"/>
-      <c r="S38" s="46"/>
+      <c r="S38" s="45"/>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="7"/>
-      <c r="B39" s="63"/>
+      <c r="B39" s="106">
+        <v>37</v>
+      </c>
       <c r="C39" s="13"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="58"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="55"/>
       <c r="F39" s="25"/>
-      <c r="G39" s="38"/>
+      <c r="G39" s="37"/>
       <c r="H39" s="24">
-        <f t="shared" si="0"/>
+        <f>F39*G39</f>
         <v>0</v>
       </c>
       <c r="I39" s="25"/>
@@ -5476,34 +5545,36 @@
       <c r="K39" s="21"/>
       <c r="L39" s="21"/>
       <c r="M39" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N39" s="45" t="e">
-        <f t="shared" si="2"/>
+        <f>J39*L39</f>
+        <v>0</v>
+      </c>
+      <c r="N39" s="44" t="e">
+        <f>(J39-K39)/K39</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O39" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P39" s="45">
-        <f t="shared" si="4"/>
+        <f>(J39-K39)*L39</f>
+        <v>0</v>
+      </c>
+      <c r="P39" s="44">
+        <f>M39/$M$55</f>
         <v>0</v>
       </c>
       <c r="Q39" s="14"/>
-      <c r="S39" s="46"/>
+      <c r="S39" s="45"/>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="7"/>
-      <c r="B40" s="63"/>
+      <c r="B40" s="106">
+        <v>38</v>
+      </c>
       <c r="C40" s="13"/>
-      <c r="D40" s="58"/>
-      <c r="E40" s="58"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="55"/>
       <c r="F40" s="25"/>
-      <c r="G40" s="38"/>
+      <c r="G40" s="37"/>
       <c r="H40" s="24">
-        <f t="shared" si="0"/>
+        <f>F40*G40</f>
         <v>0</v>
       </c>
       <c r="I40" s="25"/>
@@ -5511,34 +5582,36 @@
       <c r="K40" s="21"/>
       <c r="L40" s="21"/>
       <c r="M40" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N40" s="45" t="e">
-        <f t="shared" si="2"/>
+        <f>J40*L40</f>
+        <v>0</v>
+      </c>
+      <c r="N40" s="44" t="e">
+        <f>(J40-K40)/K40</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O40" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P40" s="45">
-        <f t="shared" si="4"/>
+        <f>(J40-K40)*L40</f>
+        <v>0</v>
+      </c>
+      <c r="P40" s="44">
+        <f>M40/$M$55</f>
         <v>0</v>
       </c>
       <c r="Q40" s="14"/>
-      <c r="S40" s="46"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S40" s="45"/>
+    </row>
+    <row r="41" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
-      <c r="B41" s="63"/>
+      <c r="B41" s="106">
+        <v>39</v>
+      </c>
       <c r="C41" s="13"/>
-      <c r="D41" s="58"/>
-      <c r="E41" s="58"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="55"/>
       <c r="F41" s="25"/>
-      <c r="G41" s="38"/>
+      <c r="G41" s="37"/>
       <c r="H41" s="24">
-        <f t="shared" si="0"/>
+        <f>F41*G41</f>
         <v>0</v>
       </c>
       <c r="I41" s="25"/>
@@ -5546,34 +5619,38 @@
       <c r="K41" s="21"/>
       <c r="L41" s="21"/>
       <c r="M41" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N41" s="45" t="e">
-        <f t="shared" si="2"/>
+        <f>J41*L41</f>
+        <v>0</v>
+      </c>
+      <c r="N41" s="44" t="e">
+        <f>(J41-K41)/K41</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O41" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P41" s="45">
-        <f t="shared" si="4"/>
+        <f>(J41-K41)*L41</f>
+        <v>0</v>
+      </c>
+      <c r="P41" s="44">
+        <f>M41/$M$55</f>
         <v>0</v>
       </c>
       <c r="Q41" s="14"/>
-      <c r="S41" s="46"/>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S41" s="45"/>
+    </row>
+    <row r="42" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7"/>
-      <c r="B42" s="63"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="58"/>
-      <c r="E42" s="58"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="61">
+        <v>110059</v>
+      </c>
+      <c r="D42" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="E42" s="55"/>
       <c r="F42" s="25"/>
-      <c r="G42" s="38"/>
+      <c r="G42" s="37"/>
       <c r="H42" s="24">
-        <f t="shared" si="0"/>
+        <f>F42*G42</f>
         <v>0</v>
       </c>
       <c r="I42" s="25"/>
@@ -5581,34 +5658,38 @@
       <c r="K42" s="21"/>
       <c r="L42" s="21"/>
       <c r="M42" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N42" s="45" t="e">
-        <f t="shared" si="2"/>
+        <f>J42*L42</f>
+        <v>0</v>
+      </c>
+      <c r="N42" s="44" t="e">
+        <f>(J42-K42)/K42</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O42" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P42" s="45">
-        <f t="shared" si="4"/>
+        <f>(J42-K42)*L42</f>
+        <v>0</v>
+      </c>
+      <c r="P42" s="44">
+        <f>M42/$M$55</f>
         <v>0</v>
       </c>
       <c r="Q42" s="14"/>
-      <c r="S42" s="46"/>
-    </row>
-    <row r="43" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S42" s="45"/>
+    </row>
+    <row r="43" spans="1:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
-      <c r="B43" s="63"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="58"/>
-      <c r="E43" s="58"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="61">
+        <v>113042</v>
+      </c>
+      <c r="D43" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="E43" s="55"/>
       <c r="F43" s="25"/>
-      <c r="G43" s="38"/>
+      <c r="G43" s="37"/>
       <c r="H43" s="24">
-        <f t="shared" si="0"/>
+        <f>F43*G43</f>
         <v>0</v>
       </c>
       <c r="I43" s="25"/>
@@ -5616,34 +5697,36 @@
       <c r="K43" s="21"/>
       <c r="L43" s="21"/>
       <c r="M43" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N43" s="45" t="e">
-        <f t="shared" si="2"/>
+        <f>J43*L43</f>
+        <v>0</v>
+      </c>
+      <c r="N43" s="44" t="e">
+        <f>(J43-K43)/K43</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O43" s="20">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="P43" s="45">
-        <f t="shared" si="4"/>
+        <f>(J43-K43)*L43</f>
+        <v>0</v>
+      </c>
+      <c r="P43" s="44">
+        <f>M43/$M$55</f>
         <v>0</v>
       </c>
       <c r="Q43" s="14"/>
-      <c r="S43" s="46"/>
+      <c r="S43" s="45"/>
     </row>
     <row r="44" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7"/>
-      <c r="B44" s="63"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="58"/>
-      <c r="E44" s="58"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="D44" s="55"/>
+      <c r="E44" s="55"/>
       <c r="F44" s="25"/>
-      <c r="G44" s="38"/>
+      <c r="G44" s="37"/>
       <c r="H44" s="24">
-        <f t="shared" ref="H44" si="5">F44*G44</f>
+        <f>F44*G44</f>
         <v>0</v>
       </c>
       <c r="I44" s="25"/>
@@ -5651,206 +5734,210 @@
       <c r="K44" s="21"/>
       <c r="L44" s="21"/>
       <c r="M44" s="20">
-        <f t="shared" ref="M44" si="6">J44*L44</f>
-        <v>0</v>
-      </c>
-      <c r="N44" s="45" t="e">
-        <f t="shared" ref="N44" si="7">(J44-K44)/K44</f>
+        <f>J44*L44</f>
+        <v>0</v>
+      </c>
+      <c r="N44" s="44" t="e">
+        <f>(J44-K44)/K44</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O44" s="20">
-        <f t="shared" ref="O44" si="8">(J44-K44)*L44</f>
-        <v>0</v>
-      </c>
-      <c r="P44" s="45">
-        <f t="shared" ref="P44" si="9">M44/$M$55</f>
+        <f>(J44-K44)*L44</f>
+        <v>0</v>
+      </c>
+      <c r="P44" s="44">
+        <f>M44/$M$55</f>
         <v>0</v>
       </c>
       <c r="Q44" s="14"/>
-      <c r="S44" s="46"/>
+      <c r="S44" s="45"/>
     </row>
     <row r="45" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7"/>
-      <c r="B45" s="56"/>
-      <c r="C45" s="64">
+      <c r="B45" s="54"/>
+      <c r="C45" s="61">
         <v>123076</v>
       </c>
-      <c r="D45" s="65" t="s">
+      <c r="D45" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="E45" s="51"/>
+      <c r="E45" s="49"/>
       <c r="F45" s="25"/>
-      <c r="G45" s="38"/>
+      <c r="G45" s="37"/>
       <c r="H45" s="25"/>
       <c r="I45" s="25"/>
       <c r="J45" s="21"/>
       <c r="K45" s="21"/>
       <c r="L45" s="21"/>
       <c r="M45" s="21"/>
-      <c r="N45" s="45" t="e">
-        <f t="shared" ref="N4:N54" si="10">(J45-K45)/K45</f>
+      <c r="N45" s="44" t="e">
+        <f>(J45-K45)/K45</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O45" s="20">
-        <f t="shared" ref="O4:O49" si="11">(J45-K45)*L45</f>
-        <v>0</v>
-      </c>
-      <c r="P45" s="45">
+        <f>(J45-K45)*L45</f>
+        <v>0</v>
+      </c>
+      <c r="P45" s="44">
         <f>M45/$M$55</f>
         <v>0</v>
       </c>
       <c r="Q45" s="14"/>
-      <c r="S45" s="46"/>
+      <c r="S45" s="45"/>
     </row>
     <row r="46" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7"/>
-      <c r="B46" s="56"/>
-      <c r="C46" s="64">
+      <c r="B46" s="54"/>
+      <c r="C46" s="61">
         <v>113033</v>
       </c>
-      <c r="D46" s="65" t="s">
+      <c r="D46" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="E46" s="51"/>
+      <c r="E46" s="49"/>
       <c r="F46" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="G46" s="38"/>
+      <c r="G46" s="37"/>
       <c r="H46" s="25"/>
       <c r="I46" s="25"/>
       <c r="J46" s="21"/>
       <c r="K46" s="21"/>
       <c r="L46" s="21"/>
       <c r="M46" s="21"/>
-      <c r="N46" s="45" t="e">
-        <f t="shared" si="10"/>
+      <c r="N46" s="44" t="e">
+        <f>(J46-K46)/K46</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O46" s="20"/>
-      <c r="P46" s="45"/>
+      <c r="P46" s="44"/>
       <c r="Q46" s="14"/>
-      <c r="S46" s="46"/>
+      <c r="S46" s="45"/>
     </row>
     <row r="47" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7"/>
-      <c r="B47" s="56"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="58"/>
-      <c r="E47" s="58"/>
+      <c r="B47" s="54"/>
+      <c r="C47" s="61">
+        <v>127034</v>
+      </c>
+      <c r="D47" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="E47" s="55"/>
       <c r="F47" s="25"/>
-      <c r="G47" s="38"/>
+      <c r="G47" s="37"/>
       <c r="H47" s="25"/>
       <c r="I47" s="25"/>
       <c r="J47" s="21"/>
       <c r="K47" s="21"/>
       <c r="L47" s="21"/>
       <c r="M47" s="21"/>
-      <c r="N47" s="45" t="e">
-        <f t="shared" si="10"/>
+      <c r="N47" s="44" t="e">
+        <f>(J47-K47)/K47</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O47" s="20"/>
-      <c r="P47" s="45"/>
+      <c r="P47" s="44"/>
       <c r="Q47" s="14"/>
-      <c r="S47" s="46"/>
+      <c r="S47" s="45"/>
     </row>
     <row r="48" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7"/>
-      <c r="B48" s="56"/>
-      <c r="C48" s="64">
+      <c r="B48" s="54"/>
+      <c r="C48" s="61">
         <v>110068</v>
       </c>
-      <c r="D48" s="65" t="s">
+      <c r="D48" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="E48" s="51"/>
+      <c r="E48" s="49"/>
       <c r="F48" s="25"/>
-      <c r="G48" s="38"/>
+      <c r="G48" s="37"/>
       <c r="H48" s="25"/>
       <c r="I48" s="25"/>
       <c r="J48" s="21"/>
       <c r="K48" s="21"/>
       <c r="L48" s="21"/>
       <c r="M48" s="21"/>
-      <c r="N48" s="45" t="e">
-        <f t="shared" si="10"/>
+      <c r="N48" s="44" t="e">
+        <f>(J48-K48)/K48</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O48" s="20">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P48" s="45">
+        <f>(J48-K48)*L48</f>
+        <v>0</v>
+      </c>
+      <c r="P48" s="44">
         <f>M48/$M$55</f>
         <v>0</v>
       </c>
       <c r="Q48" s="14"/>
-      <c r="S48" s="46"/>
+      <c r="S48" s="45"/>
     </row>
     <row r="49" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7"/>
-      <c r="B49" s="56"/>
-      <c r="C49" s="64">
+      <c r="B49" s="54"/>
+      <c r="C49" s="61">
         <v>128015</v>
       </c>
-      <c r="D49" s="65" t="s">
+      <c r="D49" s="62" t="s">
         <v>92</v>
       </c>
-      <c r="E49" s="51"/>
+      <c r="E49" s="49"/>
       <c r="F49" s="25"/>
-      <c r="G49" s="38"/>
+      <c r="G49" s="37"/>
       <c r="H49" s="25"/>
       <c r="I49" s="25"/>
       <c r="J49" s="21"/>
       <c r="K49" s="21"/>
       <c r="L49" s="21"/>
       <c r="M49" s="21"/>
-      <c r="N49" s="45" t="e">
-        <f t="shared" si="10"/>
+      <c r="N49" s="44" t="e">
+        <f>(J49-K49)/K49</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O49" s="20">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P49" s="45">
+        <f>(J49-K49)*L49</f>
+        <v>0</v>
+      </c>
+      <c r="P49" s="44">
         <f>M49/$M$55</f>
         <v>0</v>
       </c>
       <c r="Q49" s="14"/>
-      <c r="S49" s="46"/>
+      <c r="S49" s="45"/>
     </row>
     <row r="50" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7"/>
       <c r="B50" s="12"/>
-      <c r="C50" s="64">
+      <c r="C50" s="61">
         <v>113604</v>
       </c>
-      <c r="D50" s="65" t="s">
+      <c r="D50" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="E50" s="65">
+      <c r="E50" s="62">
         <v>102.93</v>
       </c>
       <c r="F50" s="25"/>
-      <c r="G50" s="38"/>
+      <c r="G50" s="37"/>
       <c r="H50" s="25"/>
       <c r="I50" s="25"/>
       <c r="J50" s="21"/>
       <c r="K50" s="21"/>
       <c r="L50" s="21"/>
       <c r="M50" s="21"/>
-      <c r="N50" s="45" t="e">
-        <f t="shared" si="10"/>
+      <c r="N50" s="44" t="e">
+        <f>(J50-K50)/K50</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O50" s="21"/>
-      <c r="P50" s="45">
+      <c r="P50" s="44">
         <f>M50/$M$55</f>
         <v>0</v>
       </c>
       <c r="Q50" s="14"/>
-      <c r="S50" s="46"/>
+      <c r="S50" s="45"/>
     </row>
     <row r="51" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7"/>
@@ -5858,138 +5945,141 @@
       <c r="C51" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D51" s="115" t="s">
+      <c r="D51" s="104" t="s">
         <v>94</v>
       </c>
-      <c r="E51" s="59"/>
+      <c r="E51" s="56"/>
       <c r="F51" s="25"/>
-      <c r="G51" s="38"/>
+      <c r="G51" s="37"/>
       <c r="H51" s="25"/>
       <c r="I51" s="25"/>
       <c r="J51" s="21"/>
       <c r="K51" s="21"/>
       <c r="L51" s="21"/>
       <c r="M51" s="21"/>
-      <c r="N51" s="45" t="e">
-        <f t="shared" si="10"/>
+      <c r="N51" s="44" t="e">
+        <f>(J51-K51)/K51</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O51" s="21"/>
       <c r="P51" s="21"/>
       <c r="Q51" s="14"/>
-      <c r="S51" s="46"/>
+      <c r="S51" s="45"/>
     </row>
     <row r="52" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7"/>
       <c r="B52" s="12"/>
       <c r="C52" s="13"/>
-      <c r="D52" s="64"/>
-      <c r="E52" s="65"/>
+      <c r="D52" s="61"/>
+      <c r="E52" s="62"/>
       <c r="F52" s="25"/>
-      <c r="G52" s="38"/>
+      <c r="G52" s="37"/>
       <c r="H52" s="25"/>
       <c r="I52" s="25"/>
       <c r="J52" s="21"/>
       <c r="K52" s="21"/>
       <c r="L52" s="21"/>
       <c r="M52" s="21"/>
-      <c r="N52" s="45" t="e">
-        <f t="shared" si="10"/>
+      <c r="N52" s="44" t="e">
+        <f>(J52-K52)/K52</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O52" s="21"/>
       <c r="P52" s="21"/>
       <c r="Q52" s="14"/>
-      <c r="S52" s="46"/>
+      <c r="S52" s="45"/>
     </row>
     <row r="53" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="12"/>
       <c r="C53" s="13"/>
-      <c r="D53" s="59"/>
-      <c r="E53" s="62" t="s">
+      <c r="D53" s="56"/>
+      <c r="E53" s="59" t="s">
         <v>75</v>
       </c>
       <c r="F53" s="25"/>
-      <c r="G53" s="38"/>
+      <c r="G53" s="37"/>
       <c r="H53" s="25"/>
       <c r="I53" s="25"/>
       <c r="J53" s="21"/>
       <c r="K53" s="21"/>
       <c r="L53" s="21"/>
       <c r="M53" s="21"/>
-      <c r="N53" s="45" t="e">
-        <f t="shared" si="10"/>
+      <c r="N53" s="44" t="e">
+        <f>(J53-K53)/K53</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O53" s="21"/>
       <c r="P53" s="21"/>
       <c r="Q53" s="14"/>
-      <c r="S53" s="46"/>
+      <c r="S53" s="45"/>
     </row>
     <row r="54" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B54" s="12"/>
       <c r="C54" s="13"/>
-      <c r="D54" s="60"/>
-      <c r="E54" s="60">
+      <c r="D54" s="57"/>
+      <c r="E54" s="57">
         <v>101.23</v>
       </c>
       <c r="F54" s="25"/>
-      <c r="G54" s="38"/>
+      <c r="G54" s="37"/>
       <c r="H54" s="25"/>
       <c r="I54" s="25"/>
       <c r="J54" s="21"/>
-      <c r="K54" s="47"/>
-      <c r="L54" s="47"/>
+      <c r="K54" s="46"/>
+      <c r="L54" s="46"/>
       <c r="M54" s="21"/>
-      <c r="N54" s="45" t="e">
-        <f t="shared" si="10"/>
+      <c r="N54" s="44" t="e">
+        <f>(J54-K54)/K54</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O54" s="21"/>
       <c r="P54" s="21"/>
       <c r="Q54" s="14"/>
-      <c r="S54" s="46"/>
+      <c r="S54" s="45"/>
     </row>
     <row r="55" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B55" s="15"/>
       <c r="C55" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D55" s="61"/>
-      <c r="E55" s="61"/>
+      <c r="D55" s="58"/>
+      <c r="E55" s="58"/>
       <c r="F55" s="26"/>
-      <c r="G55" s="39"/>
+      <c r="G55" s="38"/>
       <c r="H55" s="26">
         <f>SUM(H3:H21)</f>
         <v>3959.4800000000005</v>
       </c>
       <c r="I55" s="26"/>
       <c r="J55" s="22"/>
-      <c r="K55" s="137">
+      <c r="K55" s="111">
         <f>SUMPRODUCT((K3:K53)*(L3:L53))</f>
         <v>27533.440000000006</v>
       </c>
-      <c r="L55" s="138"/>
-      <c r="M55" s="42">
+      <c r="L55" s="112"/>
+      <c r="M55" s="41">
         <f>SUM(M3:M54)</f>
-        <v>29532.880000000001</v>
-      </c>
-      <c r="N55" s="45">
+        <v>29631.27</v>
+      </c>
+      <c r="N55" s="44">
         <f>(O55)/K55</f>
-        <v>0.11664797424513608</v>
-      </c>
-      <c r="O55" s="36">
+        <v>0.12022144708398223</v>
+      </c>
+      <c r="O55" s="35">
         <f>SUM(O3:O54)</f>
-        <v>3211.7200000000003</v>
+        <v>3310.1100000000006</v>
       </c>
       <c r="P55" s="22"/>
       <c r="Q55" s="17"/>
-      <c r="S55" s="41"/>
+      <c r="S55" s="40"/>
     </row>
     <row r="60" spans="1:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="C60" s="48"/>
+      <c r="C60" s="47"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:T61">
+    <sortCondition ref="B3:B61"/>
+  </sortState>
   <mergeCells count="9">
     <mergeCell ref="S1:S2"/>
     <mergeCell ref="A1:A2"/>
@@ -6022,9 +6112,12 @@
     <hyperlink ref="C48" r:id="rId9" display="https://www.jisilu.cn/data/convert_bond_detail/110068" xr:uid="{AC9FB7FE-7EEE-4A80-9B0B-9F8199402C01}"/>
     <hyperlink ref="C49" r:id="rId10" display="https://www.jisilu.cn/data/convert_bond_detail/128015" xr:uid="{0C070A86-DF51-46B2-B31C-60811B4165C9}"/>
     <hyperlink ref="C50" r:id="rId11" display="https://www.jisilu.cn/data/convert_bond_detail/113604" xr:uid="{828CF484-FD91-4570-BC69-8E5D76B725C4}"/>
+    <hyperlink ref="C43" r:id="rId12" display="https://www.jisilu.cn/data/convert_bond_detail/113042" xr:uid="{3C78F430-1825-44CD-A5FC-886324BD1093}"/>
+    <hyperlink ref="C42" r:id="rId13" display="https://www.jisilu.cn/data/convert_bond_detail/110059" xr:uid="{1C33FE33-4680-4BF2-B509-5CB0DA03CAD5}"/>
+    <hyperlink ref="C47" r:id="rId14" display="https://www.jisilu.cn/data/convert_bond_detail/127034" xr:uid="{F477E743-CC38-4A0A-9F55-72D9AAC617CF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId15"/>
 </worksheet>
 </file>
 
@@ -6032,8 +6125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05B1329E-1337-4138-9A17-3602309B5170}">
   <dimension ref="C1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6141,12 +6234,12 @@
   <sheetData>
     <row r="1" spans="2:23" x14ac:dyDescent="0.2">
       <c r="G1" s="18"/>
-      <c r="H1" s="30"/>
+      <c r="H1" s="29"/>
       <c r="I1" s="18"/>
-      <c r="J1" s="31"/>
+      <c r="J1" s="30"/>
       <c r="K1" s="18"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="33"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="32"/>
       <c r="N1" s="18"/>
       <c r="O1" s="18"/>
       <c r="P1" s="18"/>
@@ -6155,17 +6248,17 @@
       <c r="S1" s="18"/>
       <c r="T1" s="18"/>
       <c r="U1" s="18"/>
-      <c r="V1" s="31"/>
+      <c r="V1" s="30"/>
       <c r="W1" s="18"/>
     </row>
     <row r="2" spans="2:23" x14ac:dyDescent="0.2">
       <c r="G2" s="18"/>
-      <c r="H2" s="30"/>
+      <c r="H2" s="29"/>
       <c r="I2" s="18"/>
-      <c r="J2" s="31"/>
+      <c r="J2" s="30"/>
       <c r="K2" s="18"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="32"/>
       <c r="N2" s="18"/>
       <c r="O2" s="18"/>
       <c r="P2" s="18"/>
@@ -6174,17 +6267,17 @@
       <c r="S2" s="18"/>
       <c r="T2" s="18"/>
       <c r="U2" s="18"/>
-      <c r="V2" s="31"/>
+      <c r="V2" s="30"/>
       <c r="W2" s="18"/>
     </row>
     <row r="3" spans="2:23" x14ac:dyDescent="0.2">
       <c r="G3" s="18"/>
-      <c r="H3" s="30"/>
+      <c r="H3" s="29"/>
       <c r="I3" s="18"/>
-      <c r="J3" s="31"/>
+      <c r="J3" s="30"/>
       <c r="K3" s="18"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="32"/>
       <c r="N3" s="18"/>
       <c r="O3" s="18"/>
       <c r="P3" s="18"/>
@@ -6193,21 +6286,21 @@
       <c r="S3" s="18"/>
       <c r="T3" s="18"/>
       <c r="U3" s="18"/>
-      <c r="V3" s="31"/>
+      <c r="V3" s="30"/>
       <c r="W3" s="18"/>
     </row>
     <row r="4" spans="2:23" ht="18.75" x14ac:dyDescent="0.35">
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
-      <c r="E4" s="52"/>
+      <c r="E4" s="50"/>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
-      <c r="H4" s="30"/>
+      <c r="H4" s="29"/>
       <c r="I4" s="18"/>
-      <c r="J4" s="31"/>
+      <c r="J4" s="30"/>
       <c r="K4" s="18"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="32"/>
       <c r="N4" s="18"/>
       <c r="O4" s="18"/>
       <c r="P4" s="18"/>
@@ -6216,21 +6309,21 @@
       <c r="S4" s="18"/>
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
-      <c r="V4" s="31"/>
+      <c r="V4" s="30"/>
       <c r="W4" s="18"/>
     </row>
     <row r="5" spans="2:23" ht="18.75" x14ac:dyDescent="0.35">
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
-      <c r="E5" s="52"/>
+      <c r="E5" s="50"/>
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
-      <c r="H5" s="30"/>
+      <c r="H5" s="29"/>
       <c r="I5" s="18"/>
-      <c r="J5" s="31"/>
+      <c r="J5" s="30"/>
       <c r="K5" s="18"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="32"/>
       <c r="N5" s="18"/>
       <c r="O5" s="18"/>
       <c r="P5" s="18"/>
@@ -6239,21 +6332,21 @@
       <c r="S5" s="18"/>
       <c r="T5" s="18"/>
       <c r="U5" s="18"/>
-      <c r="V5" s="31"/>
+      <c r="V5" s="30"/>
       <c r="W5" s="18"/>
     </row>
     <row r="6" spans="2:23" ht="18.75" x14ac:dyDescent="0.35">
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
-      <c r="E6" s="52"/>
+      <c r="E6" s="50"/>
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
-      <c r="H6" s="30"/>
+      <c r="H6" s="29"/>
       <c r="I6" s="18"/>
-      <c r="J6" s="31"/>
+      <c r="J6" s="30"/>
       <c r="K6" s="18"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="32"/>
       <c r="N6" s="18"/>
       <c r="O6" s="18"/>
       <c r="P6" s="18"/>
@@ -6262,24 +6355,24 @@
       <c r="S6" s="18"/>
       <c r="T6" s="18"/>
       <c r="U6" s="18"/>
-      <c r="V6" s="31"/>
+      <c r="V6" s="30"/>
       <c r="W6" s="18"/>
     </row>
     <row r="7" spans="2:23" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="50" t="s">
         <v>66</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
-      <c r="E7" s="52"/>
+      <c r="E7" s="50"/>
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
-      <c r="H7" s="30"/>
+      <c r="H7" s="29"/>
       <c r="I7" s="18"/>
-      <c r="J7" s="31"/>
+      <c r="J7" s="30"/>
       <c r="K7" s="18"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="32"/>
       <c r="N7" s="18"/>
       <c r="O7" s="18"/>
       <c r="P7" s="18"/>
@@ -6288,24 +6381,24 @@
       <c r="S7" s="18"/>
       <c r="T7" s="18"/>
       <c r="U7" s="18"/>
-      <c r="V7" s="31"/>
+      <c r="V7" s="30"/>
       <c r="W7" s="18"/>
     </row>
     <row r="8" spans="2:23" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="50" t="s">
         <v>67</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
-      <c r="E8" s="52"/>
+      <c r="E8" s="50"/>
       <c r="F8" s="18"/>
       <c r="G8" s="18"/>
-      <c r="H8" s="30"/>
+      <c r="H8" s="29"/>
       <c r="I8" s="18"/>
-      <c r="J8" s="31"/>
+      <c r="J8" s="30"/>
       <c r="K8" s="18"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="32"/>
       <c r="N8" s="18"/>
       <c r="O8" s="18"/>
       <c r="P8" s="18"/>
@@ -6314,24 +6407,24 @@
       <c r="S8" s="18"/>
       <c r="T8" s="18"/>
       <c r="U8" s="18"/>
-      <c r="V8" s="31"/>
+      <c r="V8" s="30"/>
       <c r="W8" s="18"/>
     </row>
     <row r="9" spans="2:23" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="50" t="s">
         <v>68</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
-      <c r="E9" s="52"/>
+      <c r="E9" s="50"/>
       <c r="F9" s="18"/>
       <c r="G9" s="18"/>
-      <c r="H9" s="30"/>
+      <c r="H9" s="29"/>
       <c r="I9" s="18"/>
-      <c r="J9" s="31"/>
+      <c r="J9" s="30"/>
       <c r="K9" s="18"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="33"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="32"/>
       <c r="N9" s="18"/>
       <c r="O9" s="18"/>
       <c r="P9" s="18"/>
@@ -6340,24 +6433,24 @@
       <c r="S9" s="18"/>
       <c r="T9" s="18"/>
       <c r="U9" s="18"/>
-      <c r="V9" s="31"/>
+      <c r="V9" s="30"/>
       <c r="W9" s="18"/>
     </row>
     <row r="10" spans="2:23" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="50" t="s">
         <v>69</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
-      <c r="E10" s="52"/>
+      <c r="E10" s="50"/>
       <c r="F10" s="18"/>
       <c r="G10" s="18"/>
-      <c r="H10" s="30"/>
+      <c r="H10" s="29"/>
       <c r="I10" s="18"/>
-      <c r="J10" s="31"/>
+      <c r="J10" s="30"/>
       <c r="K10" s="18"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="32"/>
       <c r="N10" s="18"/>
       <c r="O10" s="18"/>
       <c r="P10" s="18"/>
@@ -6366,24 +6459,24 @@
       <c r="S10" s="18"/>
       <c r="T10" s="18"/>
       <c r="U10" s="18"/>
-      <c r="V10" s="31"/>
+      <c r="V10" s="30"/>
       <c r="W10" s="18"/>
     </row>
     <row r="11" spans="2:23" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="50" t="s">
         <v>70</v>
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
-      <c r="E11" s="52"/>
+      <c r="E11" s="50"/>
       <c r="F11" s="18"/>
       <c r="G11" s="18"/>
-      <c r="H11" s="30"/>
+      <c r="H11" s="29"/>
       <c r="I11" s="18"/>
-      <c r="J11" s="31"/>
+      <c r="J11" s="30"/>
       <c r="K11" s="18"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="33"/>
+      <c r="L11" s="33"/>
+      <c r="M11" s="32"/>
       <c r="N11" s="18"/>
       <c r="O11" s="18"/>
       <c r="P11" s="18"/>
@@ -6392,11 +6485,11 @@
       <c r="S11" s="18"/>
       <c r="T11" s="18"/>
       <c r="U11" s="18"/>
-      <c r="V11" s="31"/>
+      <c r="V11" s="30"/>
       <c r="W11" s="18"/>
     </row>
     <row r="12" spans="2:23" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="50" t="s">
         <v>71</v>
       </c>
       <c r="C12" s="19"/>
@@ -6404,12 +6497,12 @@
       <c r="E12" s="18"/>
       <c r="F12" s="18"/>
       <c r="G12" s="18"/>
-      <c r="H12" s="30"/>
+      <c r="H12" s="29"/>
       <c r="I12" s="18"/>
-      <c r="J12" s="31"/>
+      <c r="J12" s="30"/>
       <c r="K12" s="18"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="33"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="32"/>
       <c r="N12" s="18"/>
       <c r="O12" s="18"/>
       <c r="P12" s="18"/>
@@ -6418,11 +6511,11 @@
       <c r="S12" s="18"/>
       <c r="T12" s="18"/>
       <c r="U12" s="18"/>
-      <c r="V12" s="31"/>
+      <c r="V12" s="30"/>
       <c r="W12" s="18"/>
     </row>
     <row r="13" spans="2:23" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="B13" s="52" t="s">
+      <c r="B13" s="50" t="s">
         <v>72</v>
       </c>
       <c r="C13" s="19"/>
@@ -6430,12 +6523,12 @@
       <c r="E13" s="18"/>
       <c r="F13" s="18"/>
       <c r="G13" s="18"/>
-      <c r="H13" s="30"/>
+      <c r="H13" s="29"/>
       <c r="I13" s="18"/>
-      <c r="J13" s="31"/>
+      <c r="J13" s="30"/>
       <c r="K13" s="18"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="33"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="32"/>
       <c r="N13" s="18"/>
       <c r="O13" s="18"/>
       <c r="P13" s="18"/>
@@ -6444,11 +6537,11 @@
       <c r="S13" s="18"/>
       <c r="T13" s="18"/>
       <c r="U13" s="18"/>
-      <c r="V13" s="31"/>
+      <c r="V13" s="30"/>
       <c r="W13" s="18"/>
     </row>
     <row r="14" spans="2:23" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="50" t="s">
         <v>74</v>
       </c>
       <c r="C14" s="19"/>
@@ -6456,15 +6549,15 @@
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
-      <c r="H14" s="30"/>
+      <c r="H14" s="29"/>
       <c r="I14" s="18"/>
-      <c r="J14" s="31"/>
+      <c r="J14" s="30"/>
       <c r="K14" s="18"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="33"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="32"/>
     </row>
     <row r="15" spans="2:23" ht="18.75" x14ac:dyDescent="0.35">
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="50" t="s">
         <v>73</v>
       </c>
     </row>
@@ -6477,17 +6570,17 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3073" r:id="rId4" name="Control 1">
+        <control shapeId="3084" r:id="rId4" name="Control 12">
           <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>2</xdr:col>
+                <xdr:col>3</xdr:col>
                 <xdr:colOff>0</xdr:colOff>
                 <xdr:row>0</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>2</xdr:col>
+                <xdr:col>3</xdr:col>
                 <xdr:colOff>266700</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>57150</xdr:rowOff>
@@ -6497,13 +6590,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3073" r:id="rId4" name="Control 1"/>
+        <control shapeId="3084" r:id="rId4" name="Control 12"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3074" r:id="rId6" name="Control 2">
-          <controlPr defaultSize="0" r:id="rId7">
+        <control shapeId="3083" r:id="rId6" name="Control 11">
+          <controlPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -6512,22 +6605,47 @@
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>666750</xdr:colOff>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
                 <xdr:row>1</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>57150</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3074" r:id="rId6" name="Control 2"/>
+        <control shapeId="3083" r:id="rId6" name="Control 11"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3075" r:id="rId8" name="Control 3">
+        <control shapeId="3082" r:id="rId7" name="Control 10">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>266700</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3082" r:id="rId7" name="Control 10"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3081" r:id="rId8" name="Control 9">
           <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
@@ -6547,12 +6665,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3075" r:id="rId8" name="Control 3"/>
+        <control shapeId="3081" r:id="rId8" name="Control 9"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3076" r:id="rId10" name="Control 4">
+        <control shapeId="3080" r:id="rId10" name="Control 8">
           <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
@@ -6572,12 +6690,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3076" r:id="rId10" name="Control 4"/>
+        <control shapeId="3080" r:id="rId10" name="Control 8"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3077" r:id="rId11" name="Control 5">
+        <control shapeId="3079" r:id="rId11" name="Control 7">
           <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
@@ -6597,7 +6715,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3077" r:id="rId11" name="Control 5"/>
+        <control shapeId="3079" r:id="rId11" name="Control 7"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -6627,7 +6745,7 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3079" r:id="rId13" name="Control 7">
+        <control shapeId="3077" r:id="rId13" name="Control 5">
           <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
@@ -6647,12 +6765,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3079" r:id="rId13" name="Control 7"/>
+        <control shapeId="3077" r:id="rId13" name="Control 5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3080" r:id="rId14" name="Control 8">
+        <control shapeId="3076" r:id="rId14" name="Control 4">
           <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
@@ -6672,12 +6790,12 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3080" r:id="rId14" name="Control 8"/>
+        <control shapeId="3076" r:id="rId14" name="Control 4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3081" r:id="rId15" name="Control 9">
+        <control shapeId="3075" r:id="rId15" name="Control 3">
           <controlPr defaultSize="0" r:id="rId9">
             <anchor moveWithCells="1">
               <from>
@@ -6697,13 +6815,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3081" r:id="rId15" name="Control 9"/>
+        <control shapeId="3075" r:id="rId15" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="3082" r:id="rId16" name="Control 10">
-          <controlPr defaultSize="0" r:id="rId5">
+        <control shapeId="3074" r:id="rId16" name="Control 2">
+          <controlPr defaultSize="0" r:id="rId17">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>3</xdr:col>
@@ -6712,7 +6830,32 @@
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>3</xdr:col>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>666750</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>47625</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="3074" r:id="rId16" name="Control 2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="3073" r:id="rId18" name="Control 1">
+          <controlPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>2</xdr:col>
                 <xdr:colOff>266700</xdr:colOff>
                 <xdr:row>1</xdr:row>
                 <xdr:rowOff>57150</xdr:rowOff>
@@ -6722,57 +6865,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="3082" r:id="rId16" name="Control 10"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3083" r:id="rId17" name="Control 11">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>266700</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3083" r:id="rId17" name="Control 11"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="3084" r:id="rId18" name="Control 12">
-          <controlPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>3</xdr:col>
-                <xdr:colOff>266700</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="3084" r:id="rId18" name="Control 12"/>
+        <control shapeId="3073" r:id="rId18" name="Control 1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -6790,7 +6883,7 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="6" spans="4:5" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="34" t="s">
         <v>29</v>
       </c>
       <c r="E6" t="s">
@@ -6823,14 +6916,14 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="130" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="130"/>
-      <c r="D1" s="131" t="s">
+      <c r="B1" s="127" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="127"/>
+      <c r="D1" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="132"/>
+      <c r="E1" s="129"/>
       <c r="F1" s="3" t="s">
         <v>3</v>
       </c>

--- a/CB-202111.xlsx
+++ b/CB-202111.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55C7E722-259E-4598-9477-DB7E9BDE159D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6389FE9-D1A9-42F5-B44D-9EF15542358B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{D298135B-E4C0-45E9-BB28-1F0B05CAE31B}"/>
+    <workbookView xWindow="4905" yWindow="2400" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{D298135B-E4C0-45E9-BB28-1F0B05CAE31B}"/>
   </bookViews>
   <sheets>
     <sheet name="收益weekly" sheetId="6" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="s" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="105">
   <si>
     <t>收入</t>
   </si>
@@ -395,12 +396,57 @@
   <si>
     <t>绿茵转债</t>
   </si>
+  <si>
+    <t>买入60张大丰转债，113.44</t>
+  </si>
+  <si>
+    <t>这次转股价下修，若下修到底，特发转2转股价值可从52.068元提高到100元附近，具体下修到多少要等12月13日召开股东大会确定。受下修利好刺激，下周一特发转2可能冲击115元。</t>
+  </si>
+  <si>
+    <t>债价格偏高了，低于100的3支。</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>整体都涨了，有一支新债上市
+市场热度高</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>最近岭南转债、吉视转债、特发转2接踵宣布下修转股价，似乎有某种内在联系，可能是2021年报快要编制了，赶紧下修转股价降低负债率，让报表好看点？如果这个理由成立，可能近期还有转债加入下修阵营。下一个下修的是谁呢？个人觉得</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>长久转债、久其转债、永东转债、众信转债、湖广转债、翔鹭转债、贵广转债</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF333333"/>
+        <rFont val="Microsoft YaHei UI"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>机会较大。</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>特发转2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -525,6 +571,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="13"/>
+      <color rgb="FF333333"/>
+      <name val="Microsoft YaHei UI"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color rgb="FF333333"/>
       <name val="Microsoft YaHei UI"/>
@@ -873,7 +927,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1184,10 +1238,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1202,6 +1252,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1267,11 +1327,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1295,6 +1353,74 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1542,6 +1668,9 @@
                 <c:pt idx="9">
                   <c:v>44520</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>44527</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1580,6 +1709,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>3310.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3906</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1700,6 +1832,9 @@
                 <c:pt idx="9">
                   <c:v>44520</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>44527</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1738,6 +1873,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.1202</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1419</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2482,16 +2620,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>5972176</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2524,22 +2662,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>142480</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>37349</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>333337</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2">
+        <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3737EC36-323A-4042-B1AD-E39FE8E38AF8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D128F1FB-6577-46EC-BCB0-14CFE0294AD0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2555,8 +2693,96 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1095375" y="0"/>
-          <a:ext cx="3161905" cy="6009524"/>
+          <a:off x="942975" y="1"/>
+          <a:ext cx="5562562" cy="3181350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>9027</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104445</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{289E8502-00C1-4413-A7B0-0AC3A8BEC883}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7000875" y="180975"/>
+          <a:ext cx="3980952" cy="2638095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>389705</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>104581</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AA5C0BA-3667-445D-B079-0844F16AB31D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="3438525"/>
+          <a:ext cx="6561905" cy="1552381"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3470,20 +3696,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D2F1CA-30C4-4F8B-806E-18ED2E09BE84}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="102.125" customWidth="1"/>
     <col min="7" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>57</v>
       </c>
@@ -3494,7 +3721,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="51">
         <v>44400</v>
       </c>
@@ -3505,7 +3732,7 @@
         <v>2.8400000000000002E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="51">
         <v>44409</v>
       </c>
@@ -3516,7 +3743,7 @@
         <v>2.1399999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="51">
         <v>44416</v>
       </c>
@@ -3527,7 +3754,7 @@
         <v>4.1700000000000001E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="51">
         <v>44435</v>
       </c>
@@ -3538,7 +3765,7 @@
         <v>6.8500000000000005E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="51">
         <v>44448</v>
       </c>
@@ -3549,7 +3776,7 @@
         <v>9.2299999999999993E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="51">
         <v>44457</v>
       </c>
@@ -3560,7 +3787,7 @@
         <v>6.7599999999999993E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="51">
         <v>44463</v>
       </c>
@@ -3571,7 +3798,7 @@
         <v>7.6100000000000001E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="51">
         <v>44498</v>
       </c>
@@ -3582,7 +3809,7 @@
         <v>7.5899999999999995E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="51">
         <v>44515</v>
       </c>
@@ -3593,7 +3820,7 @@
         <v>0.1166</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="51">
         <v>44520</v>
       </c>
@@ -3602,6 +3829,20 @@
       </c>
       <c r="C11" s="52">
         <v>0.1202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="51">
+        <v>44527</v>
+      </c>
+      <c r="B12" s="82">
+        <v>3906</v>
+      </c>
+      <c r="C12" s="52">
+        <v>0.1419</v>
+      </c>
+      <c r="D12" s="133" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -3613,11 +3854,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEFBF750-5EAA-4883-8286-1EAD4F5E7DB3}">
-  <dimension ref="A1:W60"/>
+  <dimension ref="A1:W74"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3643,47 +3884,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="115"/>
-      <c r="B1" s="121" t="s">
+      <c r="A1" s="117"/>
+      <c r="B1" s="123" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="123" t="s">
+      <c r="C1" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="125" t="s">
+      <c r="D1" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="125" t="s">
+      <c r="E1" s="127" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="120" t="s">
+      <c r="F1" s="122" t="s">
         <v>35</v>
       </c>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="119" t="s">
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="119"/>
-      <c r="P1" s="119"/>
-      <c r="Q1" s="117" t="s">
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="121"/>
+      <c r="P1" s="121"/>
+      <c r="Q1" s="119" t="s">
         <v>32</v>
       </c>
-      <c r="S1" s="113" t="s">
+      <c r="S1" s="115" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="116"/>
-      <c r="B2" s="122"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
+      <c r="A2" s="118"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
       <c r="F2" s="24" t="s">
         <v>10</v>
       </c>
@@ -3717,11 +3958,11 @@
       <c r="P2" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="118"/>
+      <c r="Q2" s="120"/>
       <c r="R2" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="S2" s="114"/>
+      <c r="S2" s="116"/>
     </row>
     <row r="3" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="63"/>
@@ -3749,7 +3990,7 @@
       </c>
       <c r="I3" s="25"/>
       <c r="J3" s="21">
-        <v>107.93</v>
+        <v>108.75</v>
       </c>
       <c r="K3" s="21">
         <v>101.267</v>
@@ -3759,27 +4000,27 @@
       </c>
       <c r="M3" s="20">
         <f>J3*L3</f>
-        <v>1079.3000000000002</v>
+        <v>1087.5</v>
       </c>
       <c r="N3" s="44">
         <f>(J3-K3)/K3</f>
-        <v>6.579636011731374E-2</v>
+        <v>7.3893765984970466E-2</v>
       </c>
       <c r="O3" s="20">
         <f>(J3-K3)*L3</f>
-        <v>66.630000000000109</v>
+        <v>74.830000000000041</v>
       </c>
       <c r="P3" s="44">
         <f>M3/$M$55</f>
-        <v>3.6424358456454961E-2</v>
-      </c>
-      <c r="Q3" s="105"/>
+        <v>3.5977589683446838E-2</v>
+      </c>
+      <c r="Q3" s="114"/>
       <c r="R3" s="71"/>
       <c r="S3" s="72"/>
       <c r="T3" s="71"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B4" s="106">
+      <c r="B4" s="105">
         <v>2</v>
       </c>
       <c r="C4" s="43">
@@ -3803,7 +4044,7 @@
       </c>
       <c r="I4" s="25"/>
       <c r="J4" s="21">
-        <v>103.27</v>
+        <v>105.69</v>
       </c>
       <c r="K4" s="21">
         <v>98.05</v>
@@ -3813,19 +4054,19 @@
       </c>
       <c r="M4" s="20">
         <f>J4*L4</f>
-        <v>1032.7</v>
+        <v>1056.9000000000001</v>
       </c>
       <c r="N4" s="44">
         <f>(J4-K4)/K4</f>
-        <v>5.3238143804181529E-2</v>
+        <v>7.7919428862825102E-2</v>
       </c>
       <c r="O4" s="20">
         <f>(J4-K4)*L4</f>
-        <v>52.199999999999989</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="P4" s="44">
         <f>M4/$M$55</f>
-        <v>3.4851695523006605E-2</v>
+        <v>3.4965254746147097E-2</v>
       </c>
       <c r="Q4" s="14"/>
       <c r="S4" s="45"/>
@@ -3834,7 +4075,7 @@
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B5" s="106">
+      <c r="B5" s="105">
         <v>3</v>
       </c>
       <c r="C5" s="43">
@@ -3849,7 +4090,7 @@
       <c r="F5" s="25">
         <v>10</v>
       </c>
-      <c r="G5" s="110">
+      <c r="G5" s="109">
         <v>100.92</v>
       </c>
       <c r="H5" s="24">
@@ -3858,7 +4099,7 @@
       </c>
       <c r="I5" s="25"/>
       <c r="J5" s="21">
-        <v>107.99</v>
+        <v>108.5</v>
       </c>
       <c r="K5" s="21">
         <v>100.94</v>
@@ -3868,31 +4109,31 @@
       </c>
       <c r="M5" s="20">
         <f>J5*L5</f>
-        <v>1079.8999999999999</v>
+        <v>1085</v>
       </c>
       <c r="N5" s="44">
         <f>(J5-K5)/K5</f>
-        <v>6.9843471369130147E-2</v>
+        <v>7.489597780859919E-2</v>
       </c>
       <c r="O5" s="20">
         <f>(J5-K5)*L5</f>
-        <v>70.499999999999972</v>
+        <v>75.600000000000023</v>
       </c>
       <c r="P5" s="44">
         <f>M5/$M$55</f>
-        <v>3.6444607335426385E-2</v>
+        <v>3.5894882580726269E-2</v>
       </c>
       <c r="Q5" s="14"/>
       <c r="S5" s="45"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B6" s="106">
+    <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="105">
         <v>4</v>
       </c>
       <c r="C6" s="43">
         <v>44385</v>
       </c>
-      <c r="D6" s="107">
+      <c r="D6" s="106">
         <v>128132</v>
       </c>
       <c r="E6" s="55" t="s">
@@ -3910,7 +4151,7 @@
       </c>
       <c r="I6" s="25"/>
       <c r="J6" s="21">
-        <v>105.012</v>
+        <v>105.651</v>
       </c>
       <c r="K6" s="21">
         <v>95.771000000000001</v>
@@ -3920,25 +4161,25 @@
       </c>
       <c r="M6" s="20">
         <f>J6*L6</f>
-        <v>1050.1199999999999</v>
+        <v>1056.51</v>
       </c>
       <c r="N6" s="44">
         <f>(J6-K6)/K6</f>
-        <v>9.6490586920884192E-2</v>
+        <v>0.10316275281661458</v>
       </c>
       <c r="O6" s="20">
         <f>(J6-K6)*L6</f>
-        <v>92.41</v>
+        <v>98.799999999999955</v>
       </c>
       <c r="P6" s="44">
         <f>M6/$M$55</f>
-        <v>3.5439587975810684E-2</v>
+        <v>3.4952352438122683E-2</v>
       </c>
       <c r="Q6" s="14"/>
       <c r="S6" s="45"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B7" s="106">
+      <c r="B7" s="105">
         <v>5</v>
       </c>
       <c r="C7" s="43"/>
@@ -3960,7 +4201,7 @@
       </c>
       <c r="I7" s="25"/>
       <c r="J7" s="21">
-        <v>113.72</v>
+        <v>118.3</v>
       </c>
       <c r="K7" s="21">
         <v>96.34</v>
@@ -3970,19 +4211,19 @@
       </c>
       <c r="M7" s="20">
         <f>J7*L7</f>
-        <v>2274.4</v>
+        <v>2366</v>
       </c>
       <c r="N7" s="44">
         <f>(J7-K7)/K7</f>
-        <v>0.18040274029478923</v>
+        <v>0.22794270292713301</v>
       </c>
       <c r="O7" s="20">
         <f>(J7-K7)*L7</f>
-        <v>347.59999999999991</v>
+        <v>439.19999999999987</v>
       </c>
       <c r="P7" s="44">
         <f>M7/$M$55</f>
-        <v>7.6756750554397429E-2</v>
+        <v>7.8274002014745034E-2</v>
       </c>
       <c r="Q7" s="14"/>
       <c r="S7" s="45"/>
@@ -3991,7 +4232,7 @@
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B8" s="106">
+      <c r="B8" s="105">
         <v>6</v>
       </c>
       <c r="C8" s="43"/>
@@ -4013,7 +4254,7 @@
       </c>
       <c r="I8" s="25"/>
       <c r="J8" s="21">
-        <v>118.52</v>
+        <v>118.63</v>
       </c>
       <c r="K8" s="21">
         <v>100</v>
@@ -4023,25 +4264,25 @@
       </c>
       <c r="M8" s="20">
         <f>J8*L8</f>
-        <v>1185.2</v>
+        <v>1186.3</v>
       </c>
       <c r="N8" s="44">
         <f>(J8-K8)/K8</f>
-        <v>0.18519999999999995</v>
+        <v>0.18629999999999997</v>
       </c>
       <c r="O8" s="20">
         <f>(J8-K8)*L8</f>
-        <v>185.19999999999996</v>
+        <v>186.29999999999995</v>
       </c>
       <c r="P8" s="44">
         <f>M8/$M$55</f>
-        <v>3.9998285594913752E-2</v>
+        <v>3.9246174382963663E-2</v>
       </c>
       <c r="Q8" s="14"/>
       <c r="S8" s="45"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B9" s="106">
+      <c r="B9" s="105">
         <v>7</v>
       </c>
       <c r="C9" s="43"/>
@@ -4063,7 +4304,7 @@
       </c>
       <c r="I9" s="25"/>
       <c r="J9" s="21">
-        <v>112.99</v>
+        <v>118.992</v>
       </c>
       <c r="K9" s="21">
         <v>102.126</v>
@@ -4073,25 +4314,25 @@
       </c>
       <c r="M9" s="20">
         <f>J9*L9</f>
-        <v>1129.8999999999999</v>
+        <v>1189.92</v>
       </c>
       <c r="N9" s="44">
         <f>(J9-K9)/K9</f>
-        <v>0.10637839531559044</v>
+        <v>0.16514893367017214</v>
       </c>
       <c r="O9" s="20">
         <f>(J9-K9)*L9</f>
-        <v>108.6399999999999</v>
+        <v>168.66</v>
       </c>
       <c r="P9" s="44">
         <f>M9/$M$55</f>
-        <v>3.8132013916379548E-2</v>
+        <v>3.9365934267703045E-2</v>
       </c>
       <c r="Q9" s="14"/>
       <c r="S9" s="45"/>
     </row>
-    <row r="10" spans="1:23" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="106">
+    <row r="10" spans="1:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="105">
         <v>8</v>
       </c>
       <c r="C10" s="43"/>
@@ -4113,7 +4354,7 @@
       </c>
       <c r="I10" s="25"/>
       <c r="J10" s="21">
-        <v>103.94</v>
+        <v>104.49</v>
       </c>
       <c r="K10" s="21">
         <v>99.6</v>
@@ -4123,25 +4364,25 @@
       </c>
       <c r="M10" s="20">
         <f>J10*L10</f>
-        <v>1039.4000000000001</v>
+        <v>1044.8999999999999</v>
       </c>
       <c r="N10" s="44">
         <f>(J10-K10)/K10</f>
-        <v>4.3574297188755058E-2</v>
+        <v>4.9096385542168684E-2</v>
       </c>
       <c r="O10" s="20">
         <f>(J10-K10)*L10</f>
-        <v>43.400000000000034</v>
+        <v>48.900000000000006</v>
       </c>
       <c r="P10" s="44">
         <f>M10/$M$55</f>
-        <v>3.5077808004854334E-2</v>
+        <v>3.4568260653088365E-2</v>
       </c>
       <c r="Q10" s="14"/>
       <c r="S10" s="45"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B11" s="106">
+    <row r="11" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="105">
         <v>9</v>
       </c>
       <c r="C11" s="43"/>
@@ -4158,7 +4399,7 @@
       <c r="H11" s="24"/>
       <c r="I11" s="25"/>
       <c r="J11" s="21">
-        <v>106.6</v>
+        <v>108.21</v>
       </c>
       <c r="K11" s="21">
         <v>97.01</v>
@@ -4168,26 +4409,26 @@
       </c>
       <c r="M11" s="20">
         <f>J11*L11</f>
-        <v>1066</v>
+        <v>1082.0999999999999</v>
       </c>
       <c r="N11" s="44">
         <f>(J11-K11)/K11</f>
-        <v>9.8855788063086161E-2</v>
+        <v>0.11545201525615903</v>
       </c>
       <c r="O11" s="20">
         <f>(J11-K11)*L11</f>
-        <v>95.899999999999892</v>
+        <v>111.99999999999989</v>
       </c>
       <c r="P11" s="44">
         <f>M11/$M$55</f>
-        <v>3.597550830592141E-2</v>
+        <v>3.5798942341570411E-2</v>
       </c>
       <c r="Q11" s="14"/>
       <c r="S11" s="45"/>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A12" s="130"/>
-      <c r="B12" s="106">
+      <c r="A12" s="112"/>
+      <c r="B12" s="105">
         <v>10</v>
       </c>
       <c r="C12" s="43"/>
@@ -4209,7 +4450,7 @@
       </c>
       <c r="I12" s="25"/>
       <c r="J12" s="21">
-        <v>113</v>
+        <v>115.11499999999999</v>
       </c>
       <c r="K12" s="21">
         <v>98.131</v>
@@ -4219,19 +4460,19 @@
       </c>
       <c r="M12" s="20">
         <f>J12*L12</f>
-        <v>1130</v>
+        <v>1151.1499999999999</v>
       </c>
       <c r="N12" s="44">
         <f>(J12-K12)/K12</f>
-        <v>0.15152194515494594</v>
+        <v>0.17307476740275748</v>
       </c>
       <c r="O12" s="20">
         <f>(J12-K12)*L12</f>
-        <v>148.69</v>
+        <v>169.83999999999995</v>
       </c>
       <c r="P12" s="44">
         <f>M12/$M$55</f>
-        <v>3.8135388729541461E-2</v>
+        <v>3.8083312518712477E-2</v>
       </c>
       <c r="Q12" s="14"/>
       <c r="R12" s="85"/>
@@ -4240,7 +4481,7 @@
     </row>
     <row r="13" spans="1:23" s="94" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
-      <c r="B13" s="106">
+      <c r="B13" s="105">
         <v>11</v>
       </c>
       <c r="C13" s="103"/>
@@ -4283,8 +4524,8 @@
       <c r="T13" s="7"/>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A14" s="131"/>
-      <c r="B14" s="106">
+      <c r="A14" s="113"/>
+      <c r="B14" s="105">
         <v>12</v>
       </c>
       <c r="C14" s="43"/>
@@ -4306,7 +4547,7 @@
       </c>
       <c r="I14" s="25"/>
       <c r="J14" s="21">
-        <v>108.6</v>
+        <v>109.12</v>
       </c>
       <c r="K14" s="21">
         <v>98.71</v>
@@ -4316,19 +4557,19 @@
       </c>
       <c r="M14" s="20">
         <f>J14*L14</f>
-        <v>1086</v>
+        <v>1091.2</v>
       </c>
       <c r="N14" s="44">
         <f>(J14-K14)/K14</f>
-        <v>0.10019248303110122</v>
+        <v>0.1054604396717659</v>
       </c>
       <c r="O14" s="20">
         <f>(J14-K14)*L14</f>
-        <v>98.9</v>
+        <v>104.10000000000011</v>
       </c>
       <c r="P14" s="44">
         <f>M14/$M$55</f>
-        <v>3.6650470938302676E-2</v>
+        <v>3.6099996195473279E-2</v>
       </c>
       <c r="Q14" s="14"/>
       <c r="R14" s="73"/>
@@ -4336,7 +4577,7 @@
       <c r="T14" s="73"/>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B15" s="106">
+      <c r="B15" s="105">
         <v>13</v>
       </c>
       <c r="C15" s="43"/>
@@ -4358,7 +4599,7 @@
       </c>
       <c r="I15" s="25"/>
       <c r="J15" s="21">
-        <v>106.31</v>
+        <v>107</v>
       </c>
       <c r="K15" s="21">
         <v>109.215</v>
@@ -4368,25 +4609,25 @@
       </c>
       <c r="M15" s="20">
         <f>J15*L15</f>
-        <v>2126.1999999999998</v>
+        <v>2140</v>
       </c>
       <c r="N15" s="44">
         <f>(J15-K15)/K15</f>
-        <v>-2.659891040607976E-2</v>
+        <v>-2.0281096918921424E-2</v>
       </c>
       <c r="O15" s="20">
         <f>(J15-K15)*L15</f>
-        <v>-58.100000000000023</v>
+        <v>-44.300000000000068</v>
       </c>
       <c r="P15" s="44">
         <f>M15/$M$55</f>
-        <v>7.1755277448452254E-2</v>
+        <v>7.0797279928805731E-2</v>
       </c>
       <c r="Q15" s="14"/>
       <c r="S15" s="45"/>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="B16" s="106">
+      <c r="B16" s="105">
         <v>14</v>
       </c>
       <c r="C16" s="43">
@@ -4410,7 +4651,7 @@
       </c>
       <c r="I16" s="25"/>
       <c r="J16" s="21">
-        <v>103.39700000000001</v>
+        <v>106.745</v>
       </c>
       <c r="K16" s="21">
         <v>78.131</v>
@@ -4420,25 +4661,25 @@
       </c>
       <c r="M16" s="20">
         <f>J16*L16</f>
-        <v>1033.97</v>
+        <v>1067.45</v>
       </c>
       <c r="N16" s="44">
         <f>(J16-K16)/K16</f>
-        <v>0.32337996441873273</v>
+        <v>0.36623107345355882</v>
       </c>
       <c r="O16" s="20">
         <f>(J16-K16)*L16</f>
-        <v>252.66000000000005</v>
+        <v>286.14000000000004</v>
       </c>
       <c r="P16" s="44">
         <f>M16/$M$55</f>
-        <v>3.489455565016282E-2</v>
+        <v>3.531427871962789E-2</v>
       </c>
       <c r="Q16" s="14"/>
       <c r="S16" s="45"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B17" s="106">
+      <c r="B17" s="105">
         <v>15</v>
       </c>
       <c r="C17" s="43">
@@ -4462,7 +4703,7 @@
       </c>
       <c r="I17" s="25"/>
       <c r="J17" s="21">
-        <v>100.07</v>
+        <v>101.01</v>
       </c>
       <c r="K17" s="21">
         <v>94.27</v>
@@ -4472,25 +4713,25 @@
       </c>
       <c r="M17" s="20">
         <f>J17*L17</f>
-        <v>1000.6999999999999</v>
+        <v>1010.1</v>
       </c>
       <c r="N17" s="44">
         <f>(J17-K17)/K17</f>
-        <v>6.1525405749443061E-2</v>
+        <v>7.1496764612283964E-2</v>
       </c>
       <c r="O17" s="20">
         <f>(J17-K17)*L17</f>
-        <v>57.999999999999972</v>
+        <v>67.400000000000091</v>
       </c>
       <c r="P17" s="44">
         <f>M17/$M$55</f>
-        <v>3.3771755311196583E-2</v>
+        <v>3.3416977783218067E-2</v>
       </c>
       <c r="Q17" s="14"/>
       <c r="S17" s="45"/>
     </row>
-    <row r="18" spans="1:20" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="B18" s="106">
+    <row r="18" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="105">
         <v>16</v>
       </c>
       <c r="C18" s="53">
@@ -4499,7 +4740,7 @@
       <c r="D18" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="109" t="s">
+      <c r="E18" s="108" t="s">
         <v>83</v>
       </c>
       <c r="F18" s="25">
@@ -4514,7 +4755,7 @@
       </c>
       <c r="I18" s="25"/>
       <c r="J18" s="21">
-        <v>99.37</v>
+        <v>100.017</v>
       </c>
       <c r="K18" s="21">
         <v>97.88</v>
@@ -4524,25 +4765,25 @@
       </c>
       <c r="M18" s="20">
         <f>J18*L18</f>
-        <v>993.7</v>
+        <v>1000.17</v>
       </c>
       <c r="N18" s="44">
         <f>(J18-K18)/K18</f>
-        <v>1.5222721700040961E-2</v>
+        <v>2.1832856559051907E-2</v>
       </c>
       <c r="O18" s="20">
         <f>(J18-K18)*L18</f>
-        <v>14.900000000000091</v>
+        <v>21.370000000000005</v>
       </c>
       <c r="P18" s="44">
         <f>M18/$M$55</f>
-        <v>3.3535518389863142E-2</v>
+        <v>3.3088465171211973E-2</v>
       </c>
       <c r="Q18" s="14"/>
       <c r="S18" s="45"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B19" s="106">
+      <c r="B19" s="105">
         <v>17</v>
       </c>
       <c r="C19" s="53">
@@ -4566,7 +4807,7 @@
       </c>
       <c r="I19" s="25"/>
       <c r="J19" s="21">
-        <v>107.44</v>
+        <v>106.4</v>
       </c>
       <c r="K19" s="21">
         <v>86.13</v>
@@ -4576,25 +4817,25 @@
       </c>
       <c r="M19" s="20">
         <f>J19*L19</f>
-        <v>1074.4000000000001</v>
+        <v>1064</v>
       </c>
       <c r="N19" s="44">
         <f>(J19-K19)/K19</f>
-        <v>0.24741669569255781</v>
+        <v>0.23534192499709755</v>
       </c>
       <c r="O19" s="20">
         <f>(J19-K19)*L19</f>
-        <v>213.10000000000002</v>
+        <v>202.7000000000001</v>
       </c>
       <c r="P19" s="44">
         <f>M19/$M$55</f>
-        <v>3.6258992611521546E-2</v>
+        <v>3.5200142917873503E-2</v>
       </c>
       <c r="Q19" s="14"/>
       <c r="S19" s="45"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B20" s="106">
+      <c r="B20" s="105">
         <v>18</v>
       </c>
       <c r="C20" s="53">
@@ -4613,7 +4854,7 @@
       <c r="H20" s="24"/>
       <c r="I20" s="25"/>
       <c r="J20" s="21">
-        <v>96.18</v>
+        <v>96.2</v>
       </c>
       <c r="K20" s="21">
         <v>92.44</v>
@@ -4623,26 +4864,26 @@
       </c>
       <c r="M20" s="20">
         <f>J20*L20</f>
-        <v>961.80000000000007</v>
+        <v>962</v>
       </c>
       <c r="N20" s="44">
         <f>(J20-K20)/K20</f>
-        <v>4.0458675897879805E-2</v>
+        <v>4.0675032453483397E-2</v>
       </c>
       <c r="O20" s="20">
         <f>(J20-K20)*L20</f>
-        <v>37.400000000000091</v>
+        <v>37.600000000000051</v>
       </c>
       <c r="P20" s="44">
         <f>M20/$M$55</f>
-        <v>3.2458952991215026E-2</v>
+        <v>3.1825693126874353E-2</v>
       </c>
       <c r="Q20" s="14"/>
       <c r="S20" s="45"/>
     </row>
     <row r="21" spans="1:20" s="71" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10"/>
-      <c r="B21" s="106">
+      <c r="B21" s="105">
         <v>19</v>
       </c>
       <c r="C21" s="64">
@@ -4690,7 +4931,7 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
-      <c r="B22" s="106">
+      <c r="B22" s="105">
         <v>20</v>
       </c>
       <c r="C22" s="53">
@@ -4714,7 +4955,7 @@
       </c>
       <c r="I22" s="25"/>
       <c r="J22" s="21">
-        <v>104.13</v>
+        <v>104.97</v>
       </c>
       <c r="K22" s="21">
         <v>102.74</v>
@@ -4724,26 +4965,26 @@
       </c>
       <c r="M22" s="20">
         <f>J22*L22</f>
-        <v>1041.3</v>
+        <v>1049.7</v>
       </c>
       <c r="N22" s="44">
         <f>(J22-K22)/K22</f>
-        <v>1.3529297255207325E-2</v>
+        <v>2.1705275452598833E-2</v>
       </c>
       <c r="O22" s="20">
         <f>(J22-K22)*L22</f>
-        <v>13.900000000000006</v>
+        <v>22.30000000000004</v>
       </c>
       <c r="P22" s="44">
         <f>M22/$M$55</f>
-        <v>3.5141929454930547E-2</v>
+        <v>3.4727058290311856E-2</v>
       </c>
       <c r="Q22" s="14"/>
       <c r="S22" s="45"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
-      <c r="B23" s="106">
+      <c r="B23" s="105">
         <v>21</v>
       </c>
       <c r="C23" s="53">
@@ -4769,7 +5010,7 @@
         <v>78</v>
       </c>
       <c r="J23" s="21">
-        <v>107.1</v>
+        <v>107.7</v>
       </c>
       <c r="K23" s="21">
         <v>104.50700000000001</v>
@@ -4779,26 +5020,26 @@
       </c>
       <c r="M23" s="20">
         <f>J23*L23</f>
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="N23" s="44">
         <f>(J23-K23)/K23</f>
-        <v>2.4811735099084169E-2</v>
+        <v>3.0552977312524498E-2</v>
       </c>
       <c r="O23" s="20">
         <f>(J23-K23)*L23</f>
-        <v>25.929999999999893</v>
+        <v>31.929999999999978</v>
       </c>
       <c r="P23" s="44">
         <f>M23/$M$55</f>
-        <v>3.6144248964016731E-2</v>
+        <v>3.5630219852020452E-2</v>
       </c>
       <c r="Q23" s="14"/>
       <c r="S23" s="45"/>
     </row>
     <row r="24" spans="1:20" s="73" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="85"/>
-      <c r="B24" s="106">
+      <c r="B24" s="105">
         <v>22</v>
       </c>
       <c r="C24" s="74"/>
@@ -4845,7 +5086,7 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
-      <c r="B25" s="106">
+      <c r="B25" s="105">
         <v>23</v>
       </c>
       <c r="C25" s="53">
@@ -4871,7 +5112,7 @@
         <v>78</v>
       </c>
       <c r="J25" s="21">
-        <v>108.3</v>
+        <v>108.05</v>
       </c>
       <c r="K25" s="21">
         <v>101.93</v>
@@ -4881,19 +5122,19 @@
       </c>
       <c r="M25" s="20">
         <f>J25*L25</f>
-        <v>1083</v>
+        <v>1080.5</v>
       </c>
       <c r="N25" s="44">
         <f>(J25-K25)/K25</f>
-        <v>6.2493868341018249E-2</v>
+        <v>6.0041204748356614E-2</v>
       </c>
       <c r="O25" s="20">
         <f>(J25-K25)*L25</f>
-        <v>63.699999999999903</v>
+        <v>61.199999999999903</v>
       </c>
       <c r="P25" s="44">
         <f>M25/$M$55</f>
-        <v>3.6549226543445487E-2</v>
+        <v>3.5746009795829252E-2</v>
       </c>
       <c r="Q25" s="14" t="s">
         <v>80</v>
@@ -4902,7 +5143,7 @@
     </row>
     <row r="26" spans="1:20" s="85" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
-      <c r="B26" s="106">
+      <c r="B26" s="105">
         <v>24</v>
       </c>
       <c r="C26" s="86">
@@ -4911,7 +5152,7 @@
       <c r="D26" s="87">
         <v>113576</v>
       </c>
-      <c r="E26" s="108" t="s">
+      <c r="E26" s="107" t="s">
         <v>81</v>
       </c>
       <c r="F26" s="88">
@@ -4952,7 +5193,7 @@
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
-      <c r="B27" s="106">
+      <c r="B27" s="105">
         <v>25</v>
       </c>
       <c r="C27" s="53">
@@ -4978,7 +5219,7 @@
         <v>78</v>
       </c>
       <c r="J27" s="21">
-        <v>104.39</v>
+        <v>107.16</v>
       </c>
       <c r="K27" s="21">
         <v>98.32</v>
@@ -4988,26 +5229,26 @@
       </c>
       <c r="M27" s="20">
         <f>J27*L27</f>
-        <v>1043.9000000000001</v>
+        <v>1071.5999999999999</v>
       </c>
       <c r="N27" s="44">
         <f>(J27-K27)/K27</f>
-        <v>6.1737184703010657E-2</v>
+        <v>8.991049633848662E-2</v>
       </c>
       <c r="O27" s="20">
         <f>(J27-K27)*L27</f>
-        <v>60.700000000000074</v>
+        <v>88.400000000000034</v>
       </c>
       <c r="P27" s="44">
         <f>M27/$M$55</f>
-        <v>3.5229674597140118E-2</v>
+        <v>3.5451572510144025E-2</v>
       </c>
       <c r="Q27" s="14"/>
       <c r="S27" s="45"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
-      <c r="B28" s="106">
+      <c r="B28" s="105">
         <v>26</v>
       </c>
       <c r="C28" s="53">
@@ -5033,7 +5274,7 @@
         <v>78</v>
       </c>
       <c r="J28" s="21">
-        <v>107.158</v>
+        <v>107.93</v>
       </c>
       <c r="K28" s="21">
         <v>102.23099999999999</v>
@@ -5043,26 +5284,26 @@
       </c>
       <c r="M28" s="20">
         <f>J28*L28</f>
-        <v>1071.58</v>
+        <v>1079.3000000000002</v>
       </c>
       <c r="N28" s="44">
         <f>(J28-K28)/K28</f>
-        <v>4.8194774579139468E-2</v>
+        <v>5.5746300045974438E-2</v>
       </c>
       <c r="O28" s="20">
         <f>(J28-K28)*L28</f>
-        <v>49.270000000000067</v>
+        <v>56.990000000000123</v>
       </c>
       <c r="P28" s="44">
         <f>M28/$M$55</f>
-        <v>3.6163822880355787E-2</v>
+        <v>3.5706310386523381E-2</v>
       </c>
       <c r="Q28" s="14"/>
       <c r="S28" s="45"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="94"/>
-      <c r="B29" s="106">
+      <c r="B29" s="105">
         <v>27</v>
       </c>
       <c r="C29" s="53">
@@ -5088,7 +5329,7 @@
         <v>78</v>
       </c>
       <c r="J29" s="21">
-        <v>104.33</v>
+        <v>105.515</v>
       </c>
       <c r="K29" s="21">
         <v>101</v>
@@ -5098,19 +5339,19 @@
       </c>
       <c r="M29" s="20">
         <f>J29*L29</f>
-        <v>1043.3</v>
+        <v>1055.1500000000001</v>
       </c>
       <c r="N29" s="44">
         <f>(J29-K29)/K29</f>
-        <v>3.2970297029702951E-2</v>
+        <v>4.4702970297029708E-2</v>
       </c>
       <c r="O29" s="20">
         <f>(J29-K29)*L29</f>
-        <v>33.299999999999983</v>
+        <v>45.150000000000006</v>
       </c>
       <c r="P29" s="44">
         <f>M29/$M$55</f>
-        <v>3.5209425718168673E-2</v>
+        <v>3.4907359774242697E-2</v>
       </c>
       <c r="Q29" s="14"/>
       <c r="R29" s="94"/>
@@ -5119,7 +5360,7 @@
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
-      <c r="B30" s="106">
+      <c r="B30" s="105">
         <v>28</v>
       </c>
       <c r="C30" s="53">
@@ -5145,7 +5386,7 @@
         <v>78</v>
       </c>
       <c r="J30" s="21">
-        <v>95.32</v>
+        <v>95.49</v>
       </c>
       <c r="K30" s="21">
         <v>92</v>
@@ -5155,19 +5396,19 @@
       </c>
       <c r="M30" s="20">
         <f>J30*L30</f>
-        <v>953.19999999999993</v>
+        <v>954.9</v>
       </c>
       <c r="N30" s="44">
         <f>(J30-K30)/K30</f>
-        <v>3.6086956521739058E-2</v>
+        <v>3.7934782608695594E-2</v>
       </c>
       <c r="O30" s="20">
         <f>(J30-K30)*L30</f>
-        <v>33.199999999999932</v>
+        <v>34.899999999999949</v>
       </c>
       <c r="P30" s="44">
         <f>M30/$M$55</f>
-        <v>3.2168719059291077E-2</v>
+        <v>3.159080495514794E-2</v>
       </c>
       <c r="Q30" s="14"/>
       <c r="R30" s="8"/>
@@ -5176,7 +5417,7 @@
     </row>
     <row r="31" spans="1:20" s="85" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
-      <c r="B31" s="106">
+      <c r="B31" s="105">
         <v>29</v>
       </c>
       <c r="C31" s="86">
@@ -5185,7 +5426,7 @@
       <c r="D31" s="87">
         <v>113576</v>
       </c>
-      <c r="E31" s="108" t="s">
+      <c r="E31" s="107" t="s">
         <v>81</v>
       </c>
       <c r="F31" s="88">
@@ -5227,7 +5468,7 @@
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
-      <c r="B32" s="106">
+      <c r="B32" s="105">
         <v>30</v>
       </c>
       <c r="C32" s="13"/>
@@ -5251,7 +5492,7 @@
         <v>78</v>
       </c>
       <c r="J32" s="21">
-        <v>98.03</v>
+        <v>98.68</v>
       </c>
       <c r="K32" s="21">
         <v>99.05</v>
@@ -5261,30 +5502,32 @@
       </c>
       <c r="M32" s="20">
         <f>J32*L32</f>
-        <v>980.3</v>
+        <v>986.80000000000007</v>
       </c>
       <c r="N32" s="44">
         <f>(J32-K32)/K32</f>
-        <v>-1.0297829379101424E-2</v>
+        <v>-3.7354871277131786E-3</v>
       </c>
       <c r="O32" s="20">
         <f>(J32-K32)*L32</f>
-        <v>-10.19999999999996</v>
+        <v>-3.6999999999999034</v>
       </c>
       <c r="P32" s="44">
         <f>M32/$M$55</f>
-        <v>3.3083293426167691E-2</v>
+        <v>3.2646147585862387E-2</v>
       </c>
       <c r="Q32" s="14"/>
       <c r="S32" s="45"/>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
-      <c r="B33" s="106">
+      <c r="B33" s="105">
         <v>31</v>
       </c>
       <c r="C33" s="13"/>
-      <c r="D33" s="55"/>
+      <c r="D33" s="55">
+        <v>127047</v>
+      </c>
       <c r="E33" s="55" t="s">
         <v>87</v>
       </c>
@@ -5300,7 +5543,7 @@
         <v>62</v>
       </c>
       <c r="J33" s="21">
-        <v>100</v>
+        <v>123.1</v>
       </c>
       <c r="K33" s="21">
         <v>100</v>
@@ -5310,25 +5553,25 @@
       </c>
       <c r="M33" s="20">
         <f>J33*L33</f>
-        <v>1000</v>
+        <v>1231</v>
       </c>
       <c r="N33" s="44">
         <f>(J33-K33)/K33</f>
-        <v>0</v>
+        <v>0.23099999999999996</v>
       </c>
       <c r="O33" s="20">
         <f>(J33-K33)*L33</f>
-        <v>0</v>
+        <v>230.99999999999994</v>
       </c>
       <c r="P33" s="44">
         <f>M33/$M$55</f>
-        <v>3.3748131619063239E-2</v>
+        <v>4.072497737960741E-2</v>
       </c>
       <c r="Q33" s="14"/>
       <c r="S33" s="45"/>
     </row>
     <row r="34" spans="1:19" s="94" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="106">
+      <c r="B34" s="105">
         <v>32</v>
       </c>
       <c r="C34" s="95">
@@ -5378,7 +5621,7 @@
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A35" s="7"/>
-      <c r="B35" s="106">
+      <c r="B35" s="105">
         <v>33</v>
       </c>
       <c r="C35" s="13"/>
@@ -5412,12 +5655,14 @@
         <f>M35/$M$55</f>
         <v>0</v>
       </c>
-      <c r="Q35" s="14"/>
+      <c r="Q35" s="101" t="s">
+        <v>101</v>
+      </c>
       <c r="S35" s="45"/>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" s="7"/>
-      <c r="B36" s="106">
+      <c r="B36" s="105">
         <v>34</v>
       </c>
       <c r="C36" s="13"/>
@@ -5454,7 +5699,7 @@
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A37" s="7"/>
-      <c r="B37" s="106">
+      <c r="B37" s="105">
         <v>35</v>
       </c>
       <c r="C37" s="13"/>
@@ -5491,7 +5736,7 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A38" s="7"/>
-      <c r="B38" s="106">
+      <c r="B38" s="105">
         <v>36</v>
       </c>
       <c r="C38" s="13"/>
@@ -5528,7 +5773,7 @@
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A39" s="7"/>
-      <c r="B39" s="106">
+      <c r="B39" s="105">
         <v>37</v>
       </c>
       <c r="C39" s="13"/>
@@ -5565,7 +5810,7 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A40" s="7"/>
-      <c r="B40" s="106">
+      <c r="B40" s="105">
         <v>38</v>
       </c>
       <c r="C40" s="13"/>
@@ -5602,7 +5847,7 @@
     </row>
     <row r="41" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
-      <c r="B41" s="106">
+      <c r="B41" s="105">
         <v>39</v>
       </c>
       <c r="C41" s="13"/>
@@ -5650,7 +5895,7 @@
       <c r="F42" s="25"/>
       <c r="G42" s="37"/>
       <c r="H42" s="24">
-        <f>F42*G42</f>
+        <f t="shared" ref="H25:H44" si="0">F42*G42</f>
         <v>0</v>
       </c>
       <c r="I42" s="25"/>
@@ -5658,19 +5903,19 @@
       <c r="K42" s="21"/>
       <c r="L42" s="21"/>
       <c r="M42" s="20">
-        <f>J42*L42</f>
+        <f t="shared" ref="M3:M44" si="1">J42*L42</f>
         <v>0</v>
       </c>
       <c r="N42" s="44" t="e">
-        <f>(J42-K42)/K42</f>
+        <f t="shared" ref="N35:N54" si="2">(J42-K42)/K42</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O42" s="20">
-        <f>(J42-K42)*L42</f>
+        <f t="shared" ref="O35:O45" si="3">(J42-K42)*L42</f>
         <v>0</v>
       </c>
       <c r="P42" s="44">
-        <f>M42/$M$55</f>
+        <f t="shared" ref="P3:P45" si="4">M42/$M$55</f>
         <v>0</v>
       </c>
       <c r="Q42" s="14"/>
@@ -5689,7 +5934,7 @@
       <c r="F43" s="25"/>
       <c r="G43" s="37"/>
       <c r="H43" s="24">
-        <f>F43*G43</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I43" s="25"/>
@@ -5697,19 +5942,19 @@
       <c r="K43" s="21"/>
       <c r="L43" s="21"/>
       <c r="M43" s="20">
-        <f>J43*L43</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N43" s="44" t="e">
-        <f>(J43-K43)/K43</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O43" s="20">
-        <f>(J43-K43)*L43</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P43" s="44">
-        <f>M43/$M$55</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q43" s="14"/>
@@ -5726,7 +5971,7 @@
       <c r="F44" s="25"/>
       <c r="G44" s="37"/>
       <c r="H44" s="24">
-        <f>F44*G44</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I44" s="25"/>
@@ -5734,19 +5979,19 @@
       <c r="K44" s="21"/>
       <c r="L44" s="21"/>
       <c r="M44" s="20">
-        <f>J44*L44</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N44" s="44" t="e">
-        <f>(J44-K44)/K44</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O44" s="20">
-        <f>(J44-K44)*L44</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P44" s="44">
-        <f>M44/$M$55</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q44" s="14"/>
@@ -5771,15 +6016,15 @@
       <c r="L45" s="21"/>
       <c r="M45" s="21"/>
       <c r="N45" s="44" t="e">
-        <f>(J45-K45)/K45</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O45" s="20">
-        <f>(J45-K45)*L45</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P45" s="44">
-        <f>M45/$M$55</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q45" s="14"/>
@@ -5806,7 +6051,7 @@
       <c r="L46" s="21"/>
       <c r="M46" s="21"/>
       <c r="N46" s="44" t="e">
-        <f>(J46-K46)/K46</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O46" s="20"/>
@@ -5833,7 +6078,7 @@
       <c r="L47" s="21"/>
       <c r="M47" s="21"/>
       <c r="N47" s="44" t="e">
-        <f>(J47-K47)/K47</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O47" s="20"/>
@@ -5860,7 +6105,7 @@
       <c r="L48" s="21"/>
       <c r="M48" s="21"/>
       <c r="N48" s="44" t="e">
-        <f>(J48-K48)/K48</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O48" s="20">
@@ -5893,7 +6138,7 @@
       <c r="L49" s="21"/>
       <c r="M49" s="21"/>
       <c r="N49" s="44" t="e">
-        <f>(J49-K49)/K49</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O49" s="20">
@@ -5928,7 +6173,7 @@
       <c r="L50" s="21"/>
       <c r="M50" s="21"/>
       <c r="N50" s="44" t="e">
-        <f>(J50-K50)/K50</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O50" s="21"/>
@@ -5958,7 +6203,7 @@
       <c r="L51" s="21"/>
       <c r="M51" s="21"/>
       <c r="N51" s="44" t="e">
-        <f>(J51-K51)/K51</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O51" s="21"/>
@@ -5981,7 +6226,7 @@
       <c r="L52" s="21"/>
       <c r="M52" s="21"/>
       <c r="N52" s="44" t="e">
-        <f>(J52-K52)/K52</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O52" s="21"/>
@@ -6005,7 +6250,7 @@
       <c r="L53" s="21"/>
       <c r="M53" s="21"/>
       <c r="N53" s="44" t="e">
-        <f>(J53-K53)/K53</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O53" s="21"/>
@@ -6029,7 +6274,7 @@
       <c r="L54" s="46"/>
       <c r="M54" s="21"/>
       <c r="N54" s="44" t="e">
-        <f>(J54-K54)/K54</f>
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O54" s="21"/>
@@ -6052,33 +6297,58 @@
       </c>
       <c r="I55" s="26"/>
       <c r="J55" s="22"/>
-      <c r="K55" s="111">
+      <c r="K55" s="110">
         <f>SUMPRODUCT((K3:K53)*(L3:L53))</f>
         <v>27533.440000000006</v>
       </c>
-      <c r="L55" s="112"/>
+      <c r="L55" s="111"/>
       <c r="M55" s="41">
         <f>SUM(M3:M54)</f>
-        <v>29631.27</v>
+        <v>30227.149999999998</v>
       </c>
       <c r="N55" s="44">
         <f>(O55)/K55</f>
-        <v>0.12022144708398223</v>
+        <v>0.14186349399130657</v>
       </c>
       <c r="O55" s="35">
         <f>SUM(O3:O54)</f>
-        <v>3310.1100000000006</v>
+        <v>3905.9900000000007</v>
       </c>
       <c r="P55" s="22"/>
       <c r="Q55" s="17"/>
       <c r="S55" s="40"/>
     </row>
-    <row r="60" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="D58" s="50" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C60" s="47"/>
+      <c r="D60" s="61">
+        <v>127021</v>
+      </c>
+      <c r="E60" s="62" t="s">
+        <v>104</v>
+      </c>
+      <c r="F60" s="62">
+        <v>107.998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="D63" s="132" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="4:4" ht="18.75" x14ac:dyDescent="0.35">
+      <c r="D74" s="50" t="s">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:T61">
-    <sortCondition ref="B3:B61"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:Q41">
+    <sortCondition ref="B3:B41"/>
   </sortState>
   <mergeCells count="9">
     <mergeCell ref="S1:S2"/>
@@ -6115,9 +6385,10 @@
     <hyperlink ref="C43" r:id="rId12" display="https://www.jisilu.cn/data/convert_bond_detail/113042" xr:uid="{3C78F430-1825-44CD-A5FC-886324BD1093}"/>
     <hyperlink ref="C42" r:id="rId13" display="https://www.jisilu.cn/data/convert_bond_detail/110059" xr:uid="{1C33FE33-4680-4BF2-B509-5CB0DA03CAD5}"/>
     <hyperlink ref="C47" r:id="rId14" display="https://www.jisilu.cn/data/convert_bond_detail/127034" xr:uid="{F477E743-CC38-4A0A-9F55-72D9AAC617CF}"/>
+    <hyperlink ref="D60" r:id="rId15" display="https://www.jisilu.cn/data/convert_bond_detail/127021" xr:uid="{E49176AE-27C8-4D9B-B1C6-607F68ABCC85}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="300" r:id="rId16"/>
 </worksheet>
 </file>
 
@@ -6125,8 +6396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05B1329E-1337-4138-9A17-3602309B5170}">
   <dimension ref="C1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6916,14 +7187,14 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="127" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="127"/>
-      <c r="D1" s="128" t="s">
+      <c r="B1" s="129" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="129"/>
+      <c r="D1" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="129"/>
+      <c r="E1" s="131"/>
       <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
